--- a/data/data_dictionary_and_mapping_specifications/RePORT_DEB_to_Tables_mapping.xlsx
+++ b/data/data_dictionary_and_mapping_specifications/RePORT_DEB_to_Tables_mapping.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sj1136/Documents/VSCode_files/gitRepo/Work/ChatBotRAG/data/data_dictionary_and_mapping_specifications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420BA64A-BC00-144B-8708-1526A883F501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCCF863-CDC9-754F-8909-BE5096AFE8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="25960" windowHeight="19000" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="25960" windowHeight="19000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="New Codelists" sheetId="1" r:id="rId1"/>
+    <sheet name="Codelists" sheetId="1" r:id="rId1"/>
     <sheet name="Notes" sheetId="2" r:id="rId2"/>
     <sheet name="tblENROL" sheetId="3" r:id="rId3"/>
     <sheet name="tblHISTORY" sheetId="4" r:id="rId4"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5701" uniqueCount="2282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5702" uniqueCount="2282">
   <si>
     <t>Codelist</t>
   </si>
@@ -7657,7 +7657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -8053,6 +8053,9 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8306,8 +8309,8 @@
   </sheetPr>
   <dimension ref="A1:Z1160"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -44383,7 +44386,7 @@
   </sheetPr>
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -44776,7 +44779,7 @@
   </sheetPr>
   <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
@@ -47670,7 +47673,7 @@
   </sheetPr>
   <dimension ref="A1:AD61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -49570,7 +49573,7 @@
   </sheetPr>
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -50315,7 +50318,7 @@
   </sheetPr>
   <dimension ref="A1:AD25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
@@ -53694,8 +53697,8 @@
   </sheetPr>
   <dimension ref="A1:AD40"/>
   <sheetViews>
-    <sheetView topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -54505,7 +54508,7 @@
       <c r="I18" s="79" t="s">
         <v>1007</v>
       </c>
-      <c r="J18" s="79" t="s">
+      <c r="J18" s="169" t="s">
         <v>1068</v>
       </c>
       <c r="K18" s="79"/>
@@ -55546,8 +55549,8 @@
   </sheetPr>
   <dimension ref="A1:AD42"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -57394,7 +57397,7 @@
   <dimension ref="A1:AD1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -57453,7 +57456,9 @@
       <c r="P1" s="58" t="s">
         <v>1001</v>
       </c>
-      <c r="Q1" s="24"/>
+      <c r="Q1" s="166" t="s">
+        <v>2280</v>
+      </c>
       <c r="R1" s="24"/>
       <c r="S1" s="24"/>
       <c r="T1" s="24"/>
@@ -62109,7 +62114,7 @@
   </sheetPr>
   <dimension ref="A1:AD60"/>
   <sheetViews>
-    <sheetView topLeftCell="I4" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="S61" sqref="S61"/>
     </sheetView>
   </sheetViews>
@@ -64747,7 +64752,7 @@
   </sheetPr>
   <dimension ref="A1:AD34"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>

--- a/data/data_dictionary_and_mapping_specifications/RePORT_DEB_to_Tables_mapping.xlsx
+++ b/data/data_dictionary_and_mapping_specifications/RePORT_DEB_to_Tables_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sj1136/Documents/VSCode_files/gitRepo/Work/ChatBotRAG/data/data_dictionary_and_mapping_specifications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCCF863-CDC9-754F-8909-BE5096AFE8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24270CA-4F3D-C043-9BBD-9201F72D0F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="640" windowWidth="25960" windowHeight="19000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8309,8 +8309,8 @@
   </sheetPr>
   <dimension ref="A1:Z1160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -8342,7 +8342,6 @@
       <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -8380,7 +8379,6 @@
       <c r="G2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -8418,7 +8416,6 @@
       <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -8456,7 +8453,6 @@
       <c r="G4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -8494,7 +8490,6 @@
       <c r="G5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -8532,7 +8527,6 @@
       <c r="G6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -8570,7 +8564,6 @@
       <c r="G7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -8608,7 +8601,6 @@
       <c r="G8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -8646,7 +8638,6 @@
       <c r="G9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -8684,7 +8675,6 @@
       <c r="G10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -8722,7 +8712,6 @@
       <c r="G11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -8760,7 +8749,6 @@
       <c r="G12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -8798,7 +8786,6 @@
       <c r="G13" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -8836,7 +8823,6 @@
       <c r="G14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -8874,7 +8860,6 @@
       <c r="G15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -8912,7 +8897,6 @@
       <c r="G16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -8952,7 +8936,6 @@
       <c r="G17" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -8990,7 +8973,6 @@
       <c r="G18" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -9030,7 +9012,6 @@
       <c r="G19" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -9068,7 +9049,6 @@
       <c r="G20" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -9171,7 +9151,6 @@
       <c r="F23" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -9207,7 +9186,6 @@
       <c r="F24" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -9243,7 +9221,6 @@
       <c r="F25" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -9277,7 +9254,6 @@
       <c r="D26" s="9"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -9313,7 +9289,6 @@
       <c r="F27" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -9349,7 +9324,6 @@
       <c r="F28" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>

--- a/data/data_dictionary_and_mapping_specifications/RePORT_DEB_to_Tables_mapping.xlsx
+++ b/data/data_dictionary_and_mapping_specifications/RePORT_DEB_to_Tables_mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sj1136/Documents/VSCode_files/gitRepo/Work/ChatBotRAG/data/data_dictionary_and_mapping_specifications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24270CA-4F3D-C043-9BBD-9201F72D0F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FAD1B5-2C14-494C-B6E7-BDFC28377FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="25960" windowHeight="19000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="25960" windowHeight="19000" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codelists" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5702" uniqueCount="2282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5749" uniqueCount="2283">
   <si>
     <t>Codelist</t>
   </si>
@@ -7037,12 +7037,15 @@
   <si>
     <t>TB treatment change (Transfer out)</t>
   </si>
+  <si>
+    <t>Comments/Questions</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="51">
+  <fonts count="50">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -7334,13 +7337,6 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0563C1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -7657,7 +7653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -8025,16 +8021,13 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="44" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -8044,7 +8037,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8056,6 +8049,10 @@
     <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8309,7 +8306,7 @@
   </sheetPr>
   <dimension ref="A1:Z1160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -44807,7 +44804,7 @@
       <c r="N1" s="58" t="s">
         <v>1001</v>
       </c>
-      <c r="O1" s="163" t="s">
+      <c r="O1" s="162" t="s">
         <v>2280</v>
       </c>
       <c r="P1" s="24"/>
@@ -44983,11 +44980,11 @@
       </c>
       <c r="K5" s="143"/>
       <c r="L5" s="143"/>
-      <c r="M5" s="168" t="s">
+      <c r="M5" s="167" t="s">
         <v>2008</v>
       </c>
       <c r="N5" s="143"/>
-      <c r="O5" s="162" t="s">
+      <c r="O5" s="161" t="s">
         <v>2006</v>
       </c>
     </row>
@@ -45018,7 +45015,7 @@
       <c r="L6" s="143"/>
       <c r="M6" s="124"/>
       <c r="N6" s="143"/>
-      <c r="O6" s="162" t="s">
+      <c r="O6" s="161" t="s">
         <v>2006</v>
       </c>
     </row>
@@ -45049,7 +45046,7 @@
       <c r="L7" s="145"/>
       <c r="M7" s="61"/>
       <c r="N7" s="143"/>
-      <c r="O7" s="162" t="s">
+      <c r="O7" s="161" t="s">
         <v>2006</v>
       </c>
     </row>
@@ -45080,7 +45077,7 @@
       <c r="L8" s="145"/>
       <c r="M8" s="61"/>
       <c r="N8" s="143"/>
-      <c r="O8" s="162" t="s">
+      <c r="O8" s="161" t="s">
         <v>2006</v>
       </c>
     </row>
@@ -45111,7 +45108,7 @@
       <c r="L9" s="143"/>
       <c r="M9" s="61"/>
       <c r="N9" s="143"/>
-      <c r="O9" s="162" t="s">
+      <c r="O9" s="161" t="s">
         <v>2006</v>
       </c>
     </row>
@@ -45142,7 +45139,7 @@
       <c r="L10" s="143"/>
       <c r="M10" s="61"/>
       <c r="N10" s="143"/>
-      <c r="O10" s="162" t="s">
+      <c r="O10" s="161" t="s">
         <v>2006</v>
       </c>
     </row>
@@ -45173,7 +45170,7 @@
       <c r="L11" s="143"/>
       <c r="M11" s="61"/>
       <c r="N11" s="143"/>
-      <c r="O11" s="162" t="s">
+      <c r="O11" s="161" t="s">
         <v>2006</v>
       </c>
     </row>
@@ -45204,7 +45201,7 @@
       <c r="L12" s="143"/>
       <c r="M12" s="61"/>
       <c r="N12" s="143"/>
-      <c r="O12" s="162" t="s">
+      <c r="O12" s="161" t="s">
         <v>2006</v>
       </c>
     </row>
@@ -45239,7 +45236,7 @@
       <c r="N13" s="143" t="s">
         <v>1060</v>
       </c>
-      <c r="O13" s="162" t="s">
+      <c r="O13" s="161" t="s">
         <v>2006</v>
       </c>
     </row>
@@ -45272,7 +45269,7 @@
         <v>1502</v>
       </c>
       <c r="N14" s="143"/>
-      <c r="O14" s="162" t="s">
+      <c r="O14" s="161" t="s">
         <v>2006</v>
       </c>
     </row>
@@ -45301,7 +45298,7 @@
         <v>2019</v>
       </c>
       <c r="N15" s="68"/>
-      <c r="O15" s="162" t="s">
+      <c r="O15" s="161" t="s">
         <v>2006</v>
       </c>
     </row>
@@ -45329,7 +45326,7 @@
   </sheetPr>
   <dimension ref="A1:AD31"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
@@ -45391,7 +45388,7 @@
       <c r="P1" s="58" t="s">
         <v>1001</v>
       </c>
-      <c r="Q1" s="163" t="s">
+      <c r="Q1" s="162" t="s">
         <v>2280</v>
       </c>
       <c r="R1" s="24"/>
@@ -45577,7 +45574,7 @@
       <c r="P5" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q5" s="162" t="s">
+      <c r="Q5" s="161" t="s">
         <v>2023</v>
       </c>
     </row>
@@ -45620,7 +45617,7 @@
       <c r="P6" s="65" t="s">
         <v>1018</v>
       </c>
-      <c r="Q6" s="162" t="s">
+      <c r="Q6" s="161" t="s">
         <v>2023</v>
       </c>
     </row>
@@ -45653,7 +45650,7 @@
       <c r="N7" s="147"/>
       <c r="O7" s="64"/>
       <c r="P7" s="64"/>
-      <c r="Q7" s="162" t="s">
+      <c r="Q7" s="161" t="s">
         <v>2023</v>
       </c>
     </row>
@@ -45688,7 +45685,7 @@
       <c r="N8" s="147"/>
       <c r="O8" s="64"/>
       <c r="P8" s="64"/>
-      <c r="Q8" s="162" t="s">
+      <c r="Q8" s="161" t="s">
         <v>2023</v>
       </c>
     </row>
@@ -45723,7 +45720,7 @@
       <c r="N9" s="147"/>
       <c r="O9" s="64"/>
       <c r="P9" s="64"/>
-      <c r="Q9" s="162" t="s">
+      <c r="Q9" s="161" t="s">
         <v>2023</v>
       </c>
     </row>
@@ -45758,7 +45755,7 @@
       <c r="N10" s="147"/>
       <c r="O10" s="64"/>
       <c r="P10" s="64"/>
-      <c r="Q10" s="162" t="s">
+      <c r="Q10" s="161" t="s">
         <v>2023</v>
       </c>
     </row>
@@ -45805,7 +45802,7 @@
       <c r="P11" s="111" t="s">
         <v>1018</v>
       </c>
-      <c r="Q11" s="162" t="s">
+      <c r="Q11" s="161" t="s">
         <v>2023</v>
       </c>
     </row>
@@ -45852,7 +45849,7 @@
       <c r="P12" s="111" t="s">
         <v>1018</v>
       </c>
-      <c r="Q12" s="162" t="s">
+      <c r="Q12" s="161" t="s">
         <v>2023</v>
       </c>
     </row>
@@ -45899,7 +45896,7 @@
       <c r="P13" s="111" t="s">
         <v>1018</v>
       </c>
-      <c r="Q13" s="162" t="s">
+      <c r="Q13" s="161" t="s">
         <v>2023</v>
       </c>
     </row>
@@ -45946,7 +45943,7 @@
       <c r="P14" s="111" t="s">
         <v>1018</v>
       </c>
-      <c r="Q14" s="162" t="s">
+      <c r="Q14" s="161" t="s">
         <v>2023</v>
       </c>
     </row>
@@ -45993,7 +45990,7 @@
       <c r="P15" s="111" t="s">
         <v>1018</v>
       </c>
-      <c r="Q15" s="162" t="s">
+      <c r="Q15" s="161" t="s">
         <v>2023</v>
       </c>
     </row>
@@ -46040,7 +46037,7 @@
       <c r="P16" s="111" t="s">
         <v>1018</v>
       </c>
-      <c r="Q16" s="162" t="s">
+      <c r="Q16" s="161" t="s">
         <v>2023</v>
       </c>
     </row>
@@ -46087,7 +46084,7 @@
       <c r="P17" s="111" t="s">
         <v>1018</v>
       </c>
-      <c r="Q17" s="162" t="s">
+      <c r="Q17" s="161" t="s">
         <v>2023</v>
       </c>
     </row>
@@ -46134,7 +46131,7 @@
       <c r="P18" s="111" t="s">
         <v>1018</v>
       </c>
-      <c r="Q18" s="162" t="s">
+      <c r="Q18" s="161" t="s">
         <v>2023</v>
       </c>
     </row>
@@ -46181,7 +46178,7 @@
       <c r="P19" s="111" t="s">
         <v>1018</v>
       </c>
-      <c r="Q19" s="162" t="s">
+      <c r="Q19" s="161" t="s">
         <v>2023</v>
       </c>
     </row>
@@ -46228,7 +46225,7 @@
       <c r="P20" s="111" t="s">
         <v>1018</v>
       </c>
-      <c r="Q20" s="162" t="s">
+      <c r="Q20" s="161" t="s">
         <v>2023</v>
       </c>
     </row>
@@ -46275,7 +46272,7 @@
       <c r="P21" s="111" t="s">
         <v>1018</v>
       </c>
-      <c r="Q21" s="162" t="s">
+      <c r="Q21" s="161" t="s">
         <v>2023</v>
       </c>
     </row>
@@ -46322,7 +46319,7 @@
       <c r="P22" s="111" t="s">
         <v>1018</v>
       </c>
-      <c r="Q22" s="162" t="s">
+      <c r="Q22" s="161" t="s">
         <v>2023</v>
       </c>
     </row>
@@ -46367,7 +46364,7 @@
       <c r="P23" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q23" s="162" t="s">
+      <c r="Q23" s="161" t="s">
         <v>2023</v>
       </c>
     </row>
@@ -46412,7 +46409,7 @@
       <c r="P24" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q24" s="162" t="s">
+      <c r="Q24" s="161" t="s">
         <v>2023</v>
       </c>
     </row>
@@ -46457,7 +46454,7 @@
       <c r="P25" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q25" s="162" t="s">
+      <c r="Q25" s="161" t="s">
         <v>2023</v>
       </c>
     </row>
@@ -46502,7 +46499,7 @@
       <c r="P26" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q26" s="162" t="s">
+      <c r="Q26" s="161" t="s">
         <v>2023</v>
       </c>
     </row>
@@ -46547,7 +46544,7 @@
       <c r="P27" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q27" s="162" t="s">
+      <c r="Q27" s="161" t="s">
         <v>2023</v>
       </c>
     </row>
@@ -46592,7 +46589,7 @@
       <c r="P28" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q28" s="162" t="s">
+      <c r="Q28" s="161" t="s">
         <v>2023</v>
       </c>
     </row>
@@ -46637,7 +46634,7 @@
       <c r="P29" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q29" s="162" t="s">
+      <c r="Q29" s="161" t="s">
         <v>2023</v>
       </c>
     </row>
@@ -46682,7 +46679,7 @@
       <c r="P30" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q30" s="162" t="s">
+      <c r="Q30" s="161" t="s">
         <v>2023</v>
       </c>
     </row>
@@ -46725,7 +46722,7 @@
       <c r="P31" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q31" s="162" t="s">
+      <c r="Q31" s="161" t="s">
         <v>2023</v>
       </c>
     </row>
@@ -46758,7 +46755,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -46817,7 +46814,7 @@
       <c r="P1" s="58" t="s">
         <v>1001</v>
       </c>
-      <c r="Q1" s="167" t="s">
+      <c r="Q1" s="166" t="s">
         <v>2280</v>
       </c>
     </row>
@@ -46980,7 +46977,7 @@
       <c r="P5" s="60" t="s">
         <v>1008</v>
       </c>
-      <c r="Q5" s="164" t="s">
+      <c r="Q5" s="163" t="s">
         <v>2105</v>
       </c>
     </row>
@@ -47027,7 +47024,7 @@
       <c r="P6" s="60" t="s">
         <v>1008</v>
       </c>
-      <c r="Q6" s="164" t="s">
+      <c r="Q6" s="163" t="s">
         <v>2105</v>
       </c>
     </row>
@@ -47070,7 +47067,7 @@
       <c r="P7" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q7" s="164" t="s">
+      <c r="Q7" s="163" t="s">
         <v>2105</v>
       </c>
     </row>
@@ -47113,7 +47110,7 @@
       <c r="P8" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q8" s="164" t="s">
+      <c r="Q8" s="163" t="s">
         <v>2105</v>
       </c>
     </row>
@@ -47156,7 +47153,7 @@
       <c r="P9" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q9" s="164" t="s">
+      <c r="Q9" s="163" t="s">
         <v>2105</v>
       </c>
     </row>
@@ -47203,7 +47200,7 @@
       <c r="P10" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q10" s="165" t="s">
+      <c r="Q10" s="164" t="s">
         <v>262</v>
       </c>
     </row>
@@ -47250,7 +47247,7 @@
       <c r="P11" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q11" s="165" t="s">
+      <c r="Q11" s="164" t="s">
         <v>262</v>
       </c>
     </row>
@@ -47297,7 +47294,7 @@
       <c r="P12" s="111" t="s">
         <v>1008</v>
       </c>
-      <c r="Q12" s="165" t="s">
+      <c r="Q12" s="164" t="s">
         <v>262</v>
       </c>
     </row>
@@ -47344,7 +47341,7 @@
       <c r="P13" s="111" t="s">
         <v>1008</v>
       </c>
-      <c r="Q13" s="165" t="s">
+      <c r="Q13" s="164" t="s">
         <v>262</v>
       </c>
     </row>
@@ -47391,7 +47388,7 @@
       <c r="P14" s="111" t="s">
         <v>1008</v>
       </c>
-      <c r="Q14" s="165" t="s">
+      <c r="Q14" s="164" t="s">
         <v>262</v>
       </c>
     </row>
@@ -47438,7 +47435,7 @@
       <c r="P15" s="111" t="s">
         <v>1008</v>
       </c>
-      <c r="Q15" s="165" t="s">
+      <c r="Q15" s="164" t="s">
         <v>262</v>
       </c>
     </row>
@@ -47485,7 +47482,7 @@
       <c r="P16" s="111" t="s">
         <v>1008</v>
       </c>
-      <c r="Q16" s="165" t="s">
+      <c r="Q16" s="164" t="s">
         <v>262</v>
       </c>
     </row>
@@ -47532,7 +47529,7 @@
       <c r="P17" s="111" t="s">
         <v>1008</v>
       </c>
-      <c r="Q17" s="165" t="s">
+      <c r="Q17" s="164" t="s">
         <v>262</v>
       </c>
     </row>
@@ -47575,7 +47572,7 @@
       <c r="P18" s="111" t="s">
         <v>1008</v>
       </c>
-      <c r="Q18" s="165" t="s">
+      <c r="Q18" s="164" t="s">
         <v>262</v>
       </c>
     </row>
@@ -47618,7 +47615,7 @@
       <c r="P19" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q19" s="165" t="s">
+      <c r="Q19" s="164" t="s">
         <v>262</v>
       </c>
     </row>
@@ -47645,10 +47642,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD61"/>
+  <dimension ref="A1:AC52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="G9" workbookViewId="0">
+      <selection activeCell="S42" sqref="S42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -47657,7 +47654,7 @@
     <col min="8" max="8" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.75" customHeight="1">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1">
       <c r="A1" s="57" t="s">
         <v>989</v>
       </c>
@@ -47706,8 +47703,12 @@
       <c r="P1" s="58" t="s">
         <v>1001</v>
       </c>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
+      <c r="Q1" s="166" t="s">
+        <v>2280</v>
+      </c>
+      <c r="R1" s="170" t="s">
+        <v>2282</v>
+      </c>
       <c r="S1" s="24"/>
       <c r="T1" s="24"/>
       <c r="U1" s="24"/>
@@ -47719,9 +47720,8 @@
       <c r="AA1" s="24"/>
       <c r="AB1" s="24"/>
       <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-    </row>
-    <row r="2" spans="1:30" ht="15.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:29" ht="15.75" customHeight="1">
       <c r="A2" s="60" t="s">
         <v>1002</v>
       </c>
@@ -47758,8 +47758,6 @@
       <c r="P2" s="60" t="s">
         <v>1008</v>
       </c>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
       <c r="S2" s="24"/>
       <c r="T2" s="24"/>
       <c r="U2" s="24"/>
@@ -47771,9 +47769,8 @@
       <c r="AA2" s="24"/>
       <c r="AB2" s="24"/>
       <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-    </row>
-    <row r="3" spans="1:30" ht="15.75" customHeight="1">
+    </row>
+    <row r="3" spans="1:29" ht="15.75" customHeight="1">
       <c r="A3" s="64" t="s">
         <v>2165</v>
       </c>
@@ -47813,7 +47810,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="15.75" customHeight="1">
+    <row r="4" spans="1:29" ht="15.75" customHeight="1">
       <c r="A4" s="64" t="s">
         <v>2167</v>
       </c>
@@ -47853,7 +47850,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15.75" customHeight="1">
+    <row r="5" spans="1:29" ht="15.75" customHeight="1">
       <c r="A5" s="68"/>
       <c r="B5" s="68"/>
       <c r="C5" s="68"/>
@@ -47882,9 +47879,8 @@
       <c r="P5" s="68" t="s">
         <v>1018</v>
       </c>
-      <c r="R5" s="11"/>
-    </row>
-    <row r="6" spans="1:30" ht="15.75" customHeight="1">
+    </row>
+    <row r="6" spans="1:29" ht="15.75" customHeight="1">
       <c r="A6" s="68"/>
       <c r="B6" s="68"/>
       <c r="C6" s="68"/>
@@ -47911,9 +47907,8 @@
       <c r="P6" s="68" t="s">
         <v>1018</v>
       </c>
-      <c r="R6" s="11"/>
-    </row>
-    <row r="7" spans="1:30" ht="15.75" customHeight="1">
+    </row>
+    <row r="7" spans="1:29" ht="15.75" customHeight="1">
       <c r="A7" s="64" t="s">
         <v>2175</v>
       </c>
@@ -47952,9 +47947,8 @@
       <c r="P7" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="R7" s="11"/>
-    </row>
-    <row r="8" spans="1:30" ht="15.75" customHeight="1">
+    </row>
+    <row r="8" spans="1:29" ht="15.75" customHeight="1">
       <c r="A8" s="64" t="s">
         <v>2180</v>
       </c>
@@ -47995,9 +47989,8 @@
       <c r="P8" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="R8" s="11"/>
-    </row>
-    <row r="9" spans="1:30" ht="15.75" customHeight="1">
+    </row>
+    <row r="9" spans="1:29" ht="15.75" customHeight="1">
       <c r="A9" s="79" t="s">
         <v>2186</v>
       </c>
@@ -48036,9 +48029,8 @@
       <c r="P9" s="79" t="s">
         <v>1060</v>
       </c>
-      <c r="R9" s="11"/>
-    </row>
-    <row r="10" spans="1:30" ht="15.75" customHeight="1">
+    </row>
+    <row r="10" spans="1:29" ht="15.75" customHeight="1">
       <c r="A10" s="101"/>
       <c r="B10" s="101"/>
       <c r="C10" s="101"/>
@@ -48063,9 +48055,8 @@
       <c r="P10" s="101" t="s">
         <v>1060</v>
       </c>
-      <c r="R10" s="11"/>
-    </row>
-    <row r="11" spans="1:30" ht="15.75" customHeight="1">
+    </row>
+    <row r="11" spans="1:29" ht="15.75" customHeight="1">
       <c r="A11" s="64" t="s">
         <v>2192</v>
       </c>
@@ -48106,9 +48097,8 @@
       <c r="P11" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="R11" s="11"/>
-    </row>
-    <row r="12" spans="1:30" ht="15.75" customHeight="1">
+    </row>
+    <row r="12" spans="1:29" ht="15.75" customHeight="1">
       <c r="A12" s="64" t="s">
         <v>2197</v>
       </c>
@@ -48147,9 +48137,8 @@
       <c r="P12" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="R12" s="11"/>
-    </row>
-    <row r="13" spans="1:30" ht="15.75" customHeight="1">
+    </row>
+    <row r="13" spans="1:29" ht="15.75" customHeight="1">
       <c r="A13" s="64" t="s">
         <v>2202</v>
       </c>
@@ -48190,9 +48179,8 @@
       <c r="P13" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="R13" s="11"/>
-    </row>
-    <row r="14" spans="1:30" ht="15.75" customHeight="1">
+    </row>
+    <row r="14" spans="1:29" ht="15.75" customHeight="1">
       <c r="A14" s="64" t="s">
         <v>2207</v>
       </c>
@@ -48235,1308 +48223,1432 @@
       <c r="P14" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="R14" s="11"/>
-    </row>
-    <row r="15" spans="1:30" ht="15.75" customHeight="1">
-      <c r="R15" s="11"/>
-    </row>
-    <row r="16" spans="1:30" ht="15.75" customHeight="1">
-      <c r="R16" s="11"/>
-    </row>
-    <row r="17" spans="1:18" ht="15.75" customHeight="1">
-      <c r="R17" s="11"/>
-    </row>
-    <row r="18" spans="1:18" ht="15.75" customHeight="1">
-      <c r="R18" s="11"/>
-    </row>
-    <row r="19" spans="1:18" ht="15.75" customHeight="1">
-      <c r="R19" s="11"/>
-    </row>
-    <row r="20" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A20" s="158" t="s">
+    </row>
+    <row r="19" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A19" s="158" t="s">
         <v>2212</v>
       </c>
-      <c r="B20" s="158"/>
-      <c r="C20" s="158"/>
-      <c r="D20" s="158"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="158"/>
-      <c r="J20" s="158"/>
-      <c r="K20" s="158"/>
-      <c r="L20" s="158"/>
-      <c r="M20" s="158"/>
-      <c r="N20" s="158"/>
-      <c r="O20" s="158"/>
-      <c r="P20" s="158"/>
-    </row>
-    <row r="21" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A21" s="77" t="s">
+      <c r="B19" s="158"/>
+      <c r="C19" s="158"/>
+      <c r="D19" s="158"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="158"/>
+      <c r="J19" s="158"/>
+      <c r="K19" s="158"/>
+      <c r="L19" s="158"/>
+      <c r="M19" s="158"/>
+      <c r="N19" s="158"/>
+      <c r="O19" s="158"/>
+      <c r="P19" s="158"/>
+    </row>
+    <row r="21" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A21" s="57" t="s">
+        <v>989</v>
+      </c>
+      <c r="B21" s="58" t="s">
+        <v>990</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>991</v>
+      </c>
+      <c r="D21" s="58" t="s">
+        <v>992</v>
+      </c>
+      <c r="E21" s="58" t="s">
+        <v>993</v>
+      </c>
+      <c r="F21" s="58" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G21" s="58" t="s">
+        <v>995</v>
+      </c>
+      <c r="H21" s="58" t="s">
+        <v>996</v>
+      </c>
+      <c r="I21" s="58" t="s">
+        <v>997</v>
+      </c>
+      <c r="J21" s="58" t="s">
+        <v>998</v>
+      </c>
+      <c r="K21" s="59" t="s">
+        <v>999</v>
+      </c>
+      <c r="L21" s="84" t="s">
+        <v>961</v>
+      </c>
+      <c r="M21" s="59" t="s">
+        <v>1000</v>
+      </c>
+      <c r="N21" s="58" t="s">
+        <v>999</v>
+      </c>
+      <c r="O21" s="58" t="s">
+        <v>1000</v>
+      </c>
+      <c r="P21" s="58" t="s">
+        <v>1001</v>
+      </c>
+      <c r="Q21" s="166" t="s">
+        <v>2280</v>
+      </c>
+      <c r="R21" s="170" t="s">
+        <v>2282</v>
+      </c>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="24"/>
+      <c r="AA21" s="24"/>
+      <c r="AB21" s="24"/>
+      <c r="AC21" s="24"/>
+    </row>
+    <row r="22" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A22" s="167" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B22" s="167" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C22" s="167" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D22" s="167">
+        <v>6</v>
+      </c>
+      <c r="E22" s="167">
+        <v>0.9</v>
+      </c>
+      <c r="F22" s="167"/>
+      <c r="G22" s="167" t="s">
+        <v>2216</v>
+      </c>
+      <c r="H22" s="167" t="s">
+        <v>2217</v>
+      </c>
+      <c r="I22" s="167" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J22" s="169" t="s">
+        <v>366</v>
+      </c>
+      <c r="K22" s="167"/>
+      <c r="L22" s="167"/>
+      <c r="M22" s="167"/>
+      <c r="N22" s="167"/>
+      <c r="O22" s="167"/>
+      <c r="P22" s="167" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Q22" s="161" t="s">
         <v>2213</v>
       </c>
-      <c r="R21" s="11"/>
-    </row>
-    <row r="23" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A23" s="61" t="s">
-        <v>2214</v>
-      </c>
-      <c r="B23" s="61" t="s">
+    </row>
+    <row r="23" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A23" s="167" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B23" s="167" t="s">
         <v>2215</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="167" t="s">
         <v>1666</v>
       </c>
-      <c r="D23" s="61">
+      <c r="D23" s="167">
         <v>6</v>
       </c>
-      <c r="E23" s="61">
-        <v>0.9</v>
-      </c>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61" t="s">
-        <v>2216</v>
-      </c>
-      <c r="H23" s="61" t="s">
-        <v>2217</v>
-      </c>
-      <c r="I23" s="61" t="s">
+      <c r="E23" s="167">
+        <v>1</v>
+      </c>
+      <c r="F23" s="167"/>
+      <c r="G23" s="167" t="s">
+        <v>2219</v>
+      </c>
+      <c r="H23" s="167" t="s">
+        <v>2220</v>
+      </c>
+      <c r="I23" s="167" t="s">
         <v>1007</v>
       </c>
       <c r="J23" s="159" t="s">
+        <v>1935</v>
+      </c>
+      <c r="K23" s="167"/>
+      <c r="L23" s="167"/>
+      <c r="M23" s="167"/>
+      <c r="N23" s="167"/>
+      <c r="O23" s="167"/>
+      <c r="P23" s="167" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Q23" s="161" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A24" s="167" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B24" s="167" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C24" s="167" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D24" s="167">
+        <v>6</v>
+      </c>
+      <c r="E24" s="167">
+        <v>2</v>
+      </c>
+      <c r="F24" s="167"/>
+      <c r="G24" s="167" t="s">
+        <v>2222</v>
+      </c>
+      <c r="H24" s="167" t="s">
+        <v>2223</v>
+      </c>
+      <c r="I24" s="167" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J24" s="159" t="s">
+        <v>1068</v>
+      </c>
+      <c r="K24" s="167"/>
+      <c r="L24" s="167"/>
+      <c r="M24" s="167" t="s">
+        <v>2224</v>
+      </c>
+      <c r="N24" s="167"/>
+      <c r="O24" s="167" t="s">
+        <v>2224</v>
+      </c>
+      <c r="P24" s="167" t="s">
+        <v>1060</v>
+      </c>
+      <c r="Q24" s="161" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A25" s="167" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B25" s="167" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C25" s="167" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D25" s="167">
+        <v>1</v>
+      </c>
+      <c r="E25" s="167">
+        <v>0.2</v>
+      </c>
+      <c r="F25" s="167"/>
+      <c r="G25" s="167" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H25" s="167" t="s">
+        <v>1104</v>
+      </c>
+      <c r="I25" s="167" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J25" s="159" t="s">
+        <v>1935</v>
+      </c>
+      <c r="K25" s="167"/>
+      <c r="L25" s="167"/>
+      <c r="M25" s="167"/>
+      <c r="N25" s="167"/>
+      <c r="O25" s="167"/>
+      <c r="P25" s="167" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Q25" s="161" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A26" s="167" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B26" s="167" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C26" s="167" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D26" s="167">
+        <v>1</v>
+      </c>
+      <c r="E26" s="167">
+        <v>0.3</v>
+      </c>
+      <c r="F26" s="167"/>
+      <c r="G26" s="167" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H26" s="167" t="s">
+        <v>1108</v>
+      </c>
+      <c r="I26" s="167" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J26" s="169" t="s">
+        <v>199</v>
+      </c>
+      <c r="K26" s="167"/>
+      <c r="L26" s="167"/>
+      <c r="M26" s="167"/>
+      <c r="N26" s="167"/>
+      <c r="O26" s="167"/>
+      <c r="P26" s="167" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Q26" s="161" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A27" s="167" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B27" s="167" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C27" s="167" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D27" s="167">
+        <v>2</v>
+      </c>
+      <c r="E27" s="167">
+        <v>1</v>
+      </c>
+      <c r="F27" s="167"/>
+      <c r="G27" s="167" t="s">
+        <v>2227</v>
+      </c>
+      <c r="H27" s="167" t="s">
+        <v>2228</v>
+      </c>
+      <c r="I27" s="167" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J27" s="169" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27" s="167"/>
+      <c r="L27" s="167"/>
+      <c r="M27" s="167" t="s">
+        <v>2229</v>
+      </c>
+      <c r="N27" s="167"/>
+      <c r="O27" s="167" t="s">
+        <v>2229</v>
+      </c>
+      <c r="P27" s="167" t="s">
+        <v>1060</v>
+      </c>
+      <c r="Q27" s="161" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A28" s="167" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B28" s="167" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C28" s="167" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D28" s="167">
+        <v>2</v>
+      </c>
+      <c r="E28" s="167">
+        <v>2</v>
+      </c>
+      <c r="F28" s="167"/>
+      <c r="G28" s="167" t="s">
+        <v>2177</v>
+      </c>
+      <c r="H28" s="167" t="s">
+        <v>2179</v>
+      </c>
+      <c r="I28" s="167" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J28" s="159" t="s">
+        <v>1935</v>
+      </c>
+      <c r="K28" s="167"/>
+      <c r="L28" s="167"/>
+      <c r="M28" s="167"/>
+      <c r="N28" s="167"/>
+      <c r="O28" s="167"/>
+      <c r="P28" s="167" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Q28" s="161" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A29" s="167" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B29" s="167" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C29" s="167" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D29" s="167">
+        <v>2</v>
+      </c>
+      <c r="E29" s="167">
+        <v>4</v>
+      </c>
+      <c r="F29" s="167"/>
+      <c r="G29" s="167" t="s">
+        <v>2181</v>
+      </c>
+      <c r="H29" s="167" t="s">
+        <v>2183</v>
+      </c>
+      <c r="I29" s="167" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J29" s="169" t="s">
+        <v>276</v>
+      </c>
+      <c r="K29" s="167"/>
+      <c r="L29" s="167"/>
+      <c r="M29" s="167"/>
+      <c r="N29" s="167"/>
+      <c r="O29" s="167"/>
+      <c r="P29" s="167" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Q29" s="161" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A30" s="167" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B30" s="167" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C30" s="167" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D30" s="167">
+        <v>2</v>
+      </c>
+      <c r="E30" s="167">
+        <v>5</v>
+      </c>
+      <c r="F30" s="167"/>
+      <c r="G30" s="167" t="s">
+        <v>2187</v>
+      </c>
+      <c r="H30" s="167" t="s">
+        <v>2189</v>
+      </c>
+      <c r="I30" s="167" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J30" s="159" t="s">
+        <v>1068</v>
+      </c>
+      <c r="K30" s="167"/>
+      <c r="L30" s="167"/>
+      <c r="M30" s="167"/>
+      <c r="N30" s="167"/>
+      <c r="O30" s="167"/>
+      <c r="P30" s="167" t="s">
+        <v>1060</v>
+      </c>
+      <c r="Q30" s="161" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A31" s="167" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B31" s="167" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C31" s="167" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D31" s="167">
+        <v>2</v>
+      </c>
+      <c r="E31" s="167">
+        <v>6</v>
+      </c>
+      <c r="F31" s="167"/>
+      <c r="G31" s="167" t="s">
+        <v>2231</v>
+      </c>
+      <c r="H31" s="167" t="s">
+        <v>2232</v>
+      </c>
+      <c r="I31" s="167" t="s">
+        <v>1024</v>
+      </c>
+      <c r="J31" s="159"/>
+      <c r="K31" s="167" t="s">
+        <v>2233</v>
+      </c>
+      <c r="L31" s="167"/>
+      <c r="M31" s="167"/>
+      <c r="N31" s="167" t="s">
+        <v>2233</v>
+      </c>
+      <c r="O31" s="167"/>
+      <c r="P31" s="167" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Q31" s="161" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A32" s="167" t="s">
+        <v>2192</v>
+      </c>
+      <c r="B32" s="167" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C32" s="167" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D32" s="167">
+        <v>2</v>
+      </c>
+      <c r="E32" s="167">
+        <v>7</v>
+      </c>
+      <c r="F32" s="167"/>
+      <c r="G32" s="167" t="s">
+        <v>2193</v>
+      </c>
+      <c r="H32" s="167" t="s">
+        <v>2195</v>
+      </c>
+      <c r="I32" s="167" t="s">
+        <v>1024</v>
+      </c>
+      <c r="J32" s="159"/>
+      <c r="K32" s="167" t="s">
+        <v>2196</v>
+      </c>
+      <c r="L32" s="167"/>
+      <c r="M32" s="167"/>
+      <c r="N32" s="167" t="s">
+        <v>2196</v>
+      </c>
+      <c r="O32" s="167"/>
+      <c r="P32" s="167" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Q32" s="161" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A33" s="167" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B33" s="167" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C33" s="167" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D33" s="167">
+        <v>2</v>
+      </c>
+      <c r="E33" s="167">
+        <v>8</v>
+      </c>
+      <c r="F33" s="160"/>
+      <c r="G33" s="160" t="s">
+        <v>2235</v>
+      </c>
+      <c r="H33" s="160" t="s">
+        <v>2236</v>
+      </c>
+      <c r="I33" s="167" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J33" s="169" t="s">
+        <v>42</v>
+      </c>
+      <c r="K33" s="167"/>
+      <c r="L33" s="167"/>
+      <c r="M33" s="167"/>
+      <c r="N33" s="167"/>
+      <c r="O33" s="167"/>
+      <c r="P33" s="167" t="s">
+        <v>1060</v>
+      </c>
+      <c r="Q33" s="161" t="s">
+        <v>2225</v>
+      </c>
+      <c r="R33" s="119" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A34" s="167" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B34" s="167" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C34" s="167" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D34" s="167">
+        <v>2</v>
+      </c>
+      <c r="E34" s="167">
+        <v>9</v>
+      </c>
+      <c r="F34" s="160"/>
+      <c r="G34" s="160" t="s">
+        <v>2239</v>
+      </c>
+      <c r="H34" s="160" t="s">
+        <v>2240</v>
+      </c>
+      <c r="I34" s="167" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J34" s="169" t="s">
+        <v>42</v>
+      </c>
+      <c r="K34" s="167"/>
+      <c r="L34" s="167"/>
+      <c r="M34" s="167"/>
+      <c r="N34" s="167"/>
+      <c r="O34" s="167"/>
+      <c r="P34" s="167" t="s">
+        <v>1060</v>
+      </c>
+      <c r="Q34" s="161" t="s">
+        <v>2225</v>
+      </c>
+      <c r="R34" s="119" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A35" s="167" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B35" s="167" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C35" s="167" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D35" s="167">
+        <v>2</v>
+      </c>
+      <c r="E35" s="167">
+        <v>21</v>
+      </c>
+      <c r="F35" s="167"/>
+      <c r="G35" s="167" t="s">
+        <v>2199</v>
+      </c>
+      <c r="H35" s="167" t="s">
+        <v>2242</v>
+      </c>
+      <c r="I35" s="167" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J35" s="159" t="s">
+        <v>1935</v>
+      </c>
+      <c r="K35" s="167"/>
+      <c r="L35" s="167"/>
+      <c r="M35" s="167"/>
+      <c r="N35" s="167"/>
+      <c r="O35" s="167"/>
+      <c r="P35" s="167" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Q35" s="161" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A36" s="167" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B36" s="167" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C36" s="167" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D36" s="167">
+        <v>2</v>
+      </c>
+      <c r="E36" s="167">
+        <v>22</v>
+      </c>
+      <c r="F36" s="167"/>
+      <c r="G36" s="167" t="s">
+        <v>2203</v>
+      </c>
+      <c r="H36" s="167" t="s">
+        <v>2205</v>
+      </c>
+      <c r="I36" s="167" t="s">
+        <v>1024</v>
+      </c>
+      <c r="J36" s="159"/>
+      <c r="K36" s="167" t="s">
+        <v>2206</v>
+      </c>
+      <c r="L36" s="167"/>
+      <c r="M36" s="167"/>
+      <c r="N36" s="167" t="s">
+        <v>2206</v>
+      </c>
+      <c r="O36" s="167"/>
+      <c r="P36" s="167" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Q36" s="161" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A37" s="167" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B37" s="167" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C37" s="167" t="s">
+        <v>2198</v>
+      </c>
+      <c r="D37" s="167">
+        <v>1</v>
+      </c>
+      <c r="E37" s="167">
+        <v>0.2</v>
+      </c>
+      <c r="F37" s="167"/>
+      <c r="G37" s="167" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H37" s="167" t="s">
+        <v>1104</v>
+      </c>
+      <c r="I37" s="167" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J37" s="159" t="s">
+        <v>1935</v>
+      </c>
+      <c r="K37" s="167"/>
+      <c r="L37" s="167"/>
+      <c r="M37" s="167"/>
+      <c r="N37" s="167"/>
+      <c r="O37" s="167"/>
+      <c r="P37" s="167" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Q37" s="161" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="13">
+      <c r="A38" s="167" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B38" s="167" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C38" s="167" t="s">
+        <v>2198</v>
+      </c>
+      <c r="D38" s="167">
+        <v>1</v>
+      </c>
+      <c r="E38" s="167">
+        <v>0.3</v>
+      </c>
+      <c r="F38" s="167"/>
+      <c r="G38" s="167" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H38" s="167" t="s">
+        <v>1108</v>
+      </c>
+      <c r="I38" s="167" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J38" s="169" t="s">
+        <v>199</v>
+      </c>
+      <c r="K38" s="167"/>
+      <c r="L38" s="167"/>
+      <c r="M38" s="167"/>
+      <c r="N38" s="167"/>
+      <c r="O38" s="167"/>
+      <c r="P38" s="167" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Q38" s="161" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="13">
+      <c r="A39" s="167" t="s">
+        <v>2247</v>
+      </c>
+      <c r="B39" s="167" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C39" s="167" t="s">
+        <v>2198</v>
+      </c>
+      <c r="D39" s="167">
+        <v>2</v>
+      </c>
+      <c r="E39" s="167">
+        <v>1</v>
+      </c>
+      <c r="F39" s="167"/>
+      <c r="G39" s="167" t="s">
+        <v>2177</v>
+      </c>
+      <c r="H39" s="167" t="s">
+        <v>2179</v>
+      </c>
+      <c r="I39" s="167" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J39" s="159" t="s">
+        <v>1935</v>
+      </c>
+      <c r="K39" s="167"/>
+      <c r="L39" s="167"/>
+      <c r="M39" s="167" t="s">
+        <v>2248</v>
+      </c>
+      <c r="N39" s="167"/>
+      <c r="O39" s="167" t="s">
+        <v>2248</v>
+      </c>
+      <c r="P39" s="167" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Q39" s="161" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="13">
+      <c r="A40" s="167" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B40" s="167" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C40" s="167" t="s">
+        <v>2198</v>
+      </c>
+      <c r="D40" s="167">
+        <v>2</v>
+      </c>
+      <c r="E40" s="167">
+        <v>2</v>
+      </c>
+      <c r="F40" s="167"/>
+      <c r="G40" s="167" t="s">
+        <v>2222</v>
+      </c>
+      <c r="H40" s="167" t="s">
+        <v>2223</v>
+      </c>
+      <c r="I40" s="167" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J40" s="159" t="s">
+        <v>1068</v>
+      </c>
+      <c r="K40" s="167"/>
+      <c r="L40" s="167"/>
+      <c r="M40" s="167" t="s">
+        <v>2224</v>
+      </c>
+      <c r="N40" s="167"/>
+      <c r="O40" s="167" t="s">
+        <v>2224</v>
+      </c>
+      <c r="P40" s="167" t="s">
+        <v>1060</v>
+      </c>
+      <c r="Q40" s="161" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="13">
+      <c r="A41" s="167" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B41" s="167" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C41" s="167" t="s">
+        <v>2198</v>
+      </c>
+      <c r="D41" s="167">
+        <v>2</v>
+      </c>
+      <c r="E41" s="167">
+        <v>3</v>
+      </c>
+      <c r="F41" s="167"/>
+      <c r="G41" s="167" t="s">
+        <v>2193</v>
+      </c>
+      <c r="H41" s="167" t="s">
+        <v>2195</v>
+      </c>
+      <c r="I41" s="167" t="s">
+        <v>1024</v>
+      </c>
+      <c r="J41" s="159"/>
+      <c r="K41" s="167" t="s">
+        <v>2196</v>
+      </c>
+      <c r="L41" s="167"/>
+      <c r="M41" s="167"/>
+      <c r="N41" s="167" t="s">
+        <v>2196</v>
+      </c>
+      <c r="O41" s="167"/>
+      <c r="P41" s="167" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Q41" s="161" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="13">
+      <c r="A42" s="167" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B42" s="167" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C42" s="167" t="s">
+        <v>2198</v>
+      </c>
+      <c r="D42" s="167">
+        <v>2</v>
+      </c>
+      <c r="E42" s="167">
+        <v>21</v>
+      </c>
+      <c r="F42" s="167"/>
+      <c r="G42" s="167" t="s">
+        <v>2199</v>
+      </c>
+      <c r="H42" s="167" t="s">
+        <v>2242</v>
+      </c>
+      <c r="I42" s="167" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J42" s="159" t="s">
+        <v>1935</v>
+      </c>
+      <c r="K42" s="167"/>
+      <c r="L42" s="167"/>
+      <c r="M42" s="167"/>
+      <c r="N42" s="167"/>
+      <c r="O42" s="167"/>
+      <c r="P42" s="167" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Q42" s="161" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="13">
+      <c r="A43" s="167" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B43" s="167" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C43" s="167" t="s">
+        <v>2198</v>
+      </c>
+      <c r="D43" s="167">
+        <v>2</v>
+      </c>
+      <c r="E43" s="167">
+        <v>22</v>
+      </c>
+      <c r="F43" s="167"/>
+      <c r="G43" s="167" t="s">
+        <v>2203</v>
+      </c>
+      <c r="H43" s="167" t="s">
+        <v>2205</v>
+      </c>
+      <c r="I43" s="167" t="s">
+        <v>1024</v>
+      </c>
+      <c r="J43" s="159"/>
+      <c r="K43" s="167" t="s">
+        <v>2206</v>
+      </c>
+      <c r="L43" s="167"/>
+      <c r="M43" s="167"/>
+      <c r="N43" s="167" t="s">
+        <v>2206</v>
+      </c>
+      <c r="O43" s="167"/>
+      <c r="P43" s="167" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Q43" s="161" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="13">
+      <c r="A44" s="167" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B44" s="167" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C44" s="167" t="s">
+        <v>2198</v>
+      </c>
+      <c r="D44" s="167">
+        <v>3</v>
+      </c>
+      <c r="E44" s="167">
+        <v>33</v>
+      </c>
+      <c r="F44" s="167"/>
+      <c r="G44" s="167" t="s">
+        <v>2208</v>
+      </c>
+      <c r="H44" s="167" t="s">
+        <v>2251</v>
+      </c>
+      <c r="I44" s="167" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J44" s="159" t="s">
+        <v>1935</v>
+      </c>
+      <c r="K44" s="167"/>
+      <c r="L44" s="167"/>
+      <c r="M44" s="167" t="s">
+        <v>2211</v>
+      </c>
+      <c r="N44" s="167"/>
+      <c r="O44" s="167" t="s">
+        <v>2211</v>
+      </c>
+      <c r="P44" s="167" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Q44" s="161" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A45" s="167" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B45" s="167" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C45" s="167" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D45" s="167">
+        <v>1</v>
+      </c>
+      <c r="E45" s="167">
+        <v>0.2</v>
+      </c>
+      <c r="F45" s="167"/>
+      <c r="G45" s="167" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H45" s="167" t="s">
+        <v>1104</v>
+      </c>
+      <c r="I45" s="167" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J45" s="159" t="s">
+        <v>1935</v>
+      </c>
+      <c r="K45" s="167"/>
+      <c r="L45" s="167"/>
+      <c r="M45" s="167"/>
+      <c r="N45" s="167"/>
+      <c r="O45" s="167"/>
+      <c r="P45" s="167" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Q45" s="161" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A46" s="167" t="s">
+        <v>2255</v>
+      </c>
+      <c r="B46" s="167" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C46" s="167" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D46" s="167">
+        <v>1</v>
+      </c>
+      <c r="E46" s="167">
+        <v>0.3</v>
+      </c>
+      <c r="F46" s="167"/>
+      <c r="G46" s="167" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H46" s="167" t="s">
+        <v>1108</v>
+      </c>
+      <c r="I46" s="167" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J46" s="169" t="s">
+        <v>199</v>
+      </c>
+      <c r="K46" s="167"/>
+      <c r="L46" s="167"/>
+      <c r="M46" s="167"/>
+      <c r="N46" s="167"/>
+      <c r="O46" s="167"/>
+      <c r="P46" s="167" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Q46" s="161" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A47" s="167" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B47" s="167" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C47" s="167" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D47" s="167">
+        <v>2</v>
+      </c>
+      <c r="E47" s="167">
+        <v>1</v>
+      </c>
+      <c r="F47" s="167"/>
+      <c r="G47" s="167" t="s">
+        <v>2258</v>
+      </c>
+      <c r="H47" s="167" t="s">
+        <v>2259</v>
+      </c>
+      <c r="I47" s="167" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J47" s="159" t="s">
+        <v>1935</v>
+      </c>
+      <c r="K47" s="167"/>
+      <c r="L47" s="167"/>
+      <c r="M47" s="167"/>
+      <c r="N47" s="167"/>
+      <c r="O47" s="167"/>
+      <c r="P47" s="167" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Q47" s="161" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A48" s="167" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B48" s="167" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C48" s="167" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D48" s="167">
+        <v>2</v>
+      </c>
+      <c r="E48" s="167">
+        <v>1.4</v>
+      </c>
+      <c r="F48" s="167"/>
+      <c r="G48" s="167" t="s">
+        <v>2261</v>
+      </c>
+      <c r="H48" s="167" t="s">
+        <v>2262</v>
+      </c>
+      <c r="I48" s="167" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J48" s="159" t="s">
+        <v>2263</v>
+      </c>
+      <c r="K48" s="167"/>
+      <c r="L48" s="167"/>
+      <c r="M48" s="167" t="s">
+        <v>2264</v>
+      </c>
+      <c r="N48" s="167"/>
+      <c r="O48" s="167" t="s">
+        <v>2265</v>
+      </c>
+      <c r="P48" s="167" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Q48" s="161" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A49" s="167" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B49" s="167" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C49" s="167" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D49" s="167">
+        <v>2</v>
+      </c>
+      <c r="E49" s="167">
+        <v>1.41</v>
+      </c>
+      <c r="F49" s="167"/>
+      <c r="G49" s="167" t="s">
+        <v>2267</v>
+      </c>
+      <c r="H49" s="167" t="s">
+        <v>2268</v>
+      </c>
+      <c r="I49" s="167" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J49" s="169" t="s">
         <v>366</v>
       </c>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61" t="s">
+      <c r="K49" s="167"/>
+      <c r="L49" s="167"/>
+      <c r="M49" s="167" t="s">
+        <v>2269</v>
+      </c>
+      <c r="N49" s="167"/>
+      <c r="O49" s="167" t="s">
+        <v>2269</v>
+      </c>
+      <c r="P49" s="167" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A24" s="61" t="s">
-        <v>2218</v>
-      </c>
-      <c r="B24" s="61" t="s">
-        <v>2215</v>
-      </c>
-      <c r="C24" s="61" t="s">
-        <v>1666</v>
-      </c>
-      <c r="D24" s="61">
-        <v>6</v>
-      </c>
-      <c r="E24" s="61">
-        <v>1</v>
-      </c>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61" t="s">
-        <v>2219</v>
-      </c>
-      <c r="H24" s="61" t="s">
-        <v>2220</v>
-      </c>
-      <c r="I24" s="61" t="s">
+      <c r="Q49" s="161" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A50" s="167" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B50" s="167" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C50" s="167" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D50" s="167">
+        <v>2</v>
+      </c>
+      <c r="E50" s="167">
+        <v>21</v>
+      </c>
+      <c r="F50" s="167"/>
+      <c r="G50" s="167" t="s">
+        <v>2271</v>
+      </c>
+      <c r="H50" s="167" t="s">
+        <v>2272</v>
+      </c>
+      <c r="I50" s="167" t="s">
         <v>1007</v>
       </c>
-      <c r="J24" s="160" t="s">
+      <c r="J50" s="167" t="s">
         <v>1935</v>
       </c>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="61" t="s">
+      <c r="K50" s="167"/>
+      <c r="L50" s="167"/>
+      <c r="M50" s="167"/>
+      <c r="N50" s="167"/>
+      <c r="O50" s="167"/>
+      <c r="P50" s="167" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A25" s="61" t="s">
-        <v>2221</v>
-      </c>
-      <c r="B25" s="61" t="s">
-        <v>2215</v>
-      </c>
-      <c r="C25" s="61" t="s">
-        <v>1666</v>
-      </c>
-      <c r="D25" s="61">
-        <v>6</v>
-      </c>
-      <c r="E25" s="61">
+      <c r="Q50" s="161" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A51" s="167" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B51" s="167" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C51" s="167" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D51" s="167">
         <v>2</v>
       </c>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61" t="s">
-        <v>2222</v>
-      </c>
-      <c r="H25" s="61" t="s">
-        <v>2223</v>
-      </c>
-      <c r="I25" s="61" t="s">
+      <c r="E51" s="167">
+        <v>22</v>
+      </c>
+      <c r="F51" s="167"/>
+      <c r="G51" s="167" t="s">
+        <v>2274</v>
+      </c>
+      <c r="H51" s="167" t="s">
+        <v>2275</v>
+      </c>
+      <c r="I51" s="167" t="s">
         <v>1007</v>
       </c>
-      <c r="J25" s="160" t="s">
-        <v>1068</v>
-      </c>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61" t="s">
-        <v>2224</v>
-      </c>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61" t="s">
-        <v>2224</v>
-      </c>
-      <c r="P25" s="61" t="s">
+      <c r="J51" s="167" t="s">
+        <v>2263</v>
+      </c>
+      <c r="K51" s="167"/>
+      <c r="L51" s="167"/>
+      <c r="M51" s="167" t="s">
+        <v>2265</v>
+      </c>
+      <c r="N51" s="167"/>
+      <c r="O51" s="167" t="s">
+        <v>2265</v>
+      </c>
+      <c r="P51" s="167" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A28" s="77" t="s">
-        <v>2225</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A29" s="61" t="s">
-        <v>2165</v>
-      </c>
-      <c r="B29" s="61" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C29" s="61" t="s">
-        <v>2166</v>
-      </c>
-      <c r="D29" s="61">
-        <v>1</v>
-      </c>
-      <c r="E29" s="61">
-        <v>0.2</v>
-      </c>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61" t="s">
-        <v>1102</v>
-      </c>
-      <c r="H29" s="61" t="s">
-        <v>1104</v>
-      </c>
-      <c r="I29" s="61" t="s">
+      <c r="Q51" s="161" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A52" s="167" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B52" s="167" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C52" s="167" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D52" s="167">
+        <v>2</v>
+      </c>
+      <c r="E52" s="167">
+        <v>23</v>
+      </c>
+      <c r="F52" s="167"/>
+      <c r="G52" s="167" t="s">
+        <v>2277</v>
+      </c>
+      <c r="H52" s="167" t="s">
+        <v>2278</v>
+      </c>
+      <c r="I52" s="167" t="s">
         <v>1007</v>
       </c>
-      <c r="J29" s="160" t="s">
-        <v>1935</v>
-      </c>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61" t="s">
+      <c r="J52" s="169" t="s">
+        <v>42</v>
+      </c>
+      <c r="K52" s="167"/>
+      <c r="L52" s="167"/>
+      <c r="M52" s="167"/>
+      <c r="N52" s="167"/>
+      <c r="O52" s="167" t="s">
+        <v>2279</v>
+      </c>
+      <c r="P52" s="167" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A30" s="61" t="s">
-        <v>2167</v>
-      </c>
-      <c r="B30" s="61" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C30" s="61" t="s">
-        <v>2166</v>
-      </c>
-      <c r="D30" s="61">
-        <v>1</v>
-      </c>
-      <c r="E30" s="61">
-        <v>0.3</v>
-      </c>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61" t="s">
-        <v>1106</v>
-      </c>
-      <c r="H30" s="61" t="s">
-        <v>1108</v>
-      </c>
-      <c r="I30" s="61" t="s">
-        <v>1007</v>
-      </c>
-      <c r="J30" s="159" t="s">
-        <v>199</v>
-      </c>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="61"/>
-      <c r="P30" s="61" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A31" s="61" t="s">
-        <v>2226</v>
-      </c>
-      <c r="B31" s="61" t="s">
-        <v>2176</v>
-      </c>
-      <c r="C31" s="61" t="s">
-        <v>2166</v>
-      </c>
-      <c r="D31" s="61">
-        <v>2</v>
-      </c>
-      <c r="E31" s="61">
-        <v>1</v>
-      </c>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61" t="s">
-        <v>2227</v>
-      </c>
-      <c r="H31" s="61" t="s">
-        <v>2228</v>
-      </c>
-      <c r="I31" s="61" t="s">
-        <v>1007</v>
-      </c>
-      <c r="J31" s="159" t="s">
-        <v>42</v>
-      </c>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61" t="s">
-        <v>2229</v>
-      </c>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61" t="s">
-        <v>2229</v>
-      </c>
-      <c r="P31" s="61" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A32" s="61" t="s">
-        <v>2175</v>
-      </c>
-      <c r="B32" s="61" t="s">
-        <v>2176</v>
-      </c>
-      <c r="C32" s="61" t="s">
-        <v>2166</v>
-      </c>
-      <c r="D32" s="61">
-        <v>2</v>
-      </c>
-      <c r="E32" s="61">
-        <v>2</v>
-      </c>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61" t="s">
-        <v>2177</v>
-      </c>
-      <c r="H32" s="61" t="s">
-        <v>2179</v>
-      </c>
-      <c r="I32" s="61" t="s">
-        <v>1007</v>
-      </c>
-      <c r="J32" s="160" t="s">
-        <v>1935</v>
-      </c>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="61"/>
-      <c r="P32" s="61" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A33" s="61" t="s">
-        <v>2180</v>
-      </c>
-      <c r="B33" s="61" t="s">
-        <v>2176</v>
-      </c>
-      <c r="C33" s="61" t="s">
-        <v>2166</v>
-      </c>
-      <c r="D33" s="61">
-        <v>2</v>
-      </c>
-      <c r="E33" s="61">
-        <v>4</v>
-      </c>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61" t="s">
-        <v>2181</v>
-      </c>
-      <c r="H33" s="61" t="s">
-        <v>2183</v>
-      </c>
-      <c r="I33" s="61" t="s">
-        <v>1007</v>
-      </c>
-      <c r="J33" s="159" t="s">
-        <v>276</v>
-      </c>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="61" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A34" s="61" t="s">
-        <v>2186</v>
-      </c>
-      <c r="B34" s="61" t="s">
-        <v>2176</v>
-      </c>
-      <c r="C34" s="61" t="s">
-        <v>2166</v>
-      </c>
-      <c r="D34" s="61">
-        <v>2</v>
-      </c>
-      <c r="E34" s="61">
-        <v>5</v>
-      </c>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61" t="s">
-        <v>2187</v>
-      </c>
-      <c r="H34" s="61" t="s">
-        <v>2189</v>
-      </c>
-      <c r="I34" s="61" t="s">
-        <v>1007</v>
-      </c>
-      <c r="J34" s="160" t="s">
-        <v>1068</v>
-      </c>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="61" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A35" s="61" t="s">
-        <v>2230</v>
-      </c>
-      <c r="B35" s="61" t="s">
-        <v>2176</v>
-      </c>
-      <c r="C35" s="61" t="s">
-        <v>2166</v>
-      </c>
-      <c r="D35" s="61">
-        <v>2</v>
-      </c>
-      <c r="E35" s="61">
-        <v>6</v>
-      </c>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61" t="s">
-        <v>2231</v>
-      </c>
-      <c r="H35" s="61" t="s">
-        <v>2232</v>
-      </c>
-      <c r="I35" s="61" t="s">
-        <v>1024</v>
-      </c>
-      <c r="J35" s="160"/>
-      <c r="K35" s="61" t="s">
-        <v>2233</v>
-      </c>
-      <c r="L35" s="61"/>
-      <c r="M35" s="61"/>
-      <c r="N35" s="61" t="s">
-        <v>2233</v>
-      </c>
-      <c r="O35" s="61"/>
-      <c r="P35" s="61" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A36" s="61" t="s">
-        <v>2192</v>
-      </c>
-      <c r="B36" s="61" t="s">
-        <v>2176</v>
-      </c>
-      <c r="C36" s="61" t="s">
-        <v>2166</v>
-      </c>
-      <c r="D36" s="61">
-        <v>2</v>
-      </c>
-      <c r="E36" s="61">
-        <v>7</v>
-      </c>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61" t="s">
-        <v>2193</v>
-      </c>
-      <c r="H36" s="61" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I36" s="61" t="s">
-        <v>1024</v>
-      </c>
-      <c r="J36" s="160"/>
-      <c r="K36" s="61" t="s">
-        <v>2196</v>
-      </c>
-      <c r="L36" s="61"/>
-      <c r="M36" s="61"/>
-      <c r="N36" s="61" t="s">
-        <v>2196</v>
-      </c>
-      <c r="O36" s="61"/>
-      <c r="P36" s="61" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A37" s="61" t="s">
-        <v>2234</v>
-      </c>
-      <c r="B37" s="61" t="s">
-        <v>2176</v>
-      </c>
-      <c r="C37" s="61" t="s">
-        <v>2166</v>
-      </c>
-      <c r="D37" s="61">
-        <v>2</v>
-      </c>
-      <c r="E37" s="61">
-        <v>8</v>
-      </c>
-      <c r="F37" s="161"/>
-      <c r="G37" s="161" t="s">
-        <v>2235</v>
-      </c>
-      <c r="H37" s="161" t="s">
-        <v>2236</v>
-      </c>
-      <c r="I37" s="61" t="s">
-        <v>1007</v>
-      </c>
-      <c r="J37" s="159" t="s">
-        <v>42</v>
-      </c>
-      <c r="K37" s="61"/>
-      <c r="L37" s="61"/>
-      <c r="M37" s="61"/>
-      <c r="N37" s="61"/>
-      <c r="O37" s="61"/>
-      <c r="P37" s="61" t="s">
-        <v>1060</v>
-      </c>
-      <c r="Q37" s="119" t="s">
-        <v>2237</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A38" s="61" t="s">
-        <v>2238</v>
-      </c>
-      <c r="B38" s="61" t="s">
-        <v>2176</v>
-      </c>
-      <c r="C38" s="61" t="s">
-        <v>2166</v>
-      </c>
-      <c r="D38" s="61">
-        <v>2</v>
-      </c>
-      <c r="E38" s="61">
-        <v>9</v>
-      </c>
-      <c r="F38" s="161"/>
-      <c r="G38" s="161" t="s">
-        <v>2239</v>
-      </c>
-      <c r="H38" s="161" t="s">
-        <v>2240</v>
-      </c>
-      <c r="I38" s="61" t="s">
-        <v>1007</v>
-      </c>
-      <c r="J38" s="159" t="s">
-        <v>42</v>
-      </c>
-      <c r="K38" s="61"/>
-      <c r="L38" s="61"/>
-      <c r="M38" s="61"/>
-      <c r="N38" s="61"/>
-      <c r="O38" s="61"/>
-      <c r="P38" s="61" t="s">
-        <v>1060</v>
-      </c>
-      <c r="Q38" s="119" t="s">
-        <v>2237</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A39" s="61" t="s">
-        <v>2241</v>
-      </c>
-      <c r="B39" s="61" t="s">
-        <v>2176</v>
-      </c>
-      <c r="C39" s="61" t="s">
-        <v>2166</v>
-      </c>
-      <c r="D39" s="61">
-        <v>2</v>
-      </c>
-      <c r="E39" s="61">
-        <v>21</v>
-      </c>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61" t="s">
-        <v>2199</v>
-      </c>
-      <c r="H39" s="61" t="s">
-        <v>2242</v>
-      </c>
-      <c r="I39" s="61" t="s">
-        <v>1007</v>
-      </c>
-      <c r="J39" s="160" t="s">
-        <v>1935</v>
-      </c>
-      <c r="K39" s="61"/>
-      <c r="L39" s="61"/>
-      <c r="M39" s="61"/>
-      <c r="N39" s="61"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="61" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A40" s="61" t="s">
-        <v>2243</v>
-      </c>
-      <c r="B40" s="61" t="s">
-        <v>2176</v>
-      </c>
-      <c r="C40" s="61" t="s">
-        <v>2166</v>
-      </c>
-      <c r="D40" s="61">
-        <v>2</v>
-      </c>
-      <c r="E40" s="61">
-        <v>22</v>
-      </c>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61" t="s">
-        <v>2203</v>
-      </c>
-      <c r="H40" s="61" t="s">
-        <v>2205</v>
-      </c>
-      <c r="I40" s="61" t="s">
-        <v>1024</v>
-      </c>
-      <c r="J40" s="160"/>
-      <c r="K40" s="61" t="s">
-        <v>2206</v>
-      </c>
-      <c r="L40" s="61"/>
-      <c r="M40" s="61"/>
-      <c r="N40" s="61" t="s">
-        <v>2206</v>
-      </c>
-      <c r="O40" s="61"/>
-      <c r="P40" s="61" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A42" s="77" t="s">
-        <v>2244</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A43" s="61" t="s">
-        <v>2245</v>
-      </c>
-      <c r="B43" s="61" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C43" s="61" t="s">
-        <v>2198</v>
-      </c>
-      <c r="D43" s="61">
-        <v>1</v>
-      </c>
-      <c r="E43" s="61">
-        <v>0.2</v>
-      </c>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61" t="s">
-        <v>1102</v>
-      </c>
-      <c r="H43" s="61" t="s">
-        <v>1104</v>
-      </c>
-      <c r="I43" s="61" t="s">
-        <v>1007</v>
-      </c>
-      <c r="J43" s="160" t="s">
-        <v>1935</v>
-      </c>
-      <c r="K43" s="61"/>
-      <c r="L43" s="61"/>
-      <c r="M43" s="61"/>
-      <c r="N43" s="61"/>
-      <c r="O43" s="61"/>
-      <c r="P43" s="61" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A44" s="61" t="s">
-        <v>2246</v>
-      </c>
-      <c r="B44" s="61" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C44" s="61" t="s">
-        <v>2198</v>
-      </c>
-      <c r="D44" s="61">
-        <v>1</v>
-      </c>
-      <c r="E44" s="61">
-        <v>0.3</v>
-      </c>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61" t="s">
-        <v>1106</v>
-      </c>
-      <c r="H44" s="61" t="s">
-        <v>1108</v>
-      </c>
-      <c r="I44" s="61" t="s">
-        <v>1007</v>
-      </c>
-      <c r="J44" s="159" t="s">
-        <v>199</v>
-      </c>
-      <c r="K44" s="61"/>
-      <c r="L44" s="61"/>
-      <c r="M44" s="61"/>
-      <c r="N44" s="61"/>
-      <c r="O44" s="61"/>
-      <c r="P44" s="61" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A45" s="61" t="s">
-        <v>2247</v>
-      </c>
-      <c r="B45" s="61" t="s">
-        <v>2176</v>
-      </c>
-      <c r="C45" s="61" t="s">
-        <v>2198</v>
-      </c>
-      <c r="D45" s="61">
-        <v>2</v>
-      </c>
-      <c r="E45" s="61">
-        <v>1</v>
-      </c>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61" t="s">
-        <v>2177</v>
-      </c>
-      <c r="H45" s="61" t="s">
-        <v>2179</v>
-      </c>
-      <c r="I45" s="61" t="s">
-        <v>1007</v>
-      </c>
-      <c r="J45" s="160" t="s">
-        <v>1935</v>
-      </c>
-      <c r="K45" s="61"/>
-      <c r="L45" s="61"/>
-      <c r="M45" s="61" t="s">
-        <v>2248</v>
-      </c>
-      <c r="N45" s="61"/>
-      <c r="O45" s="61" t="s">
-        <v>2248</v>
-      </c>
-      <c r="P45" s="61" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A46" s="61" t="s">
-        <v>2249</v>
-      </c>
-      <c r="B46" s="61" t="s">
-        <v>2176</v>
-      </c>
-      <c r="C46" s="61" t="s">
-        <v>2198</v>
-      </c>
-      <c r="D46" s="61">
-        <v>2</v>
-      </c>
-      <c r="E46" s="61">
-        <v>2</v>
-      </c>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61" t="s">
-        <v>2222</v>
-      </c>
-      <c r="H46" s="61" t="s">
-        <v>2223</v>
-      </c>
-      <c r="I46" s="61" t="s">
-        <v>1007</v>
-      </c>
-      <c r="J46" s="160" t="s">
-        <v>1068</v>
-      </c>
-      <c r="K46" s="61"/>
-      <c r="L46" s="61"/>
-      <c r="M46" s="61" t="s">
-        <v>2224</v>
-      </c>
-      <c r="N46" s="61"/>
-      <c r="O46" s="61" t="s">
-        <v>2224</v>
-      </c>
-      <c r="P46" s="61" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A47" s="61" t="s">
-        <v>2250</v>
-      </c>
-      <c r="B47" s="61" t="s">
-        <v>2176</v>
-      </c>
-      <c r="C47" s="61" t="s">
-        <v>2198</v>
-      </c>
-      <c r="D47" s="61">
-        <v>2</v>
-      </c>
-      <c r="E47" s="61">
-        <v>3</v>
-      </c>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61" t="s">
-        <v>2193</v>
-      </c>
-      <c r="H47" s="61" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I47" s="61" t="s">
-        <v>1024</v>
-      </c>
-      <c r="J47" s="160"/>
-      <c r="K47" s="61" t="s">
-        <v>2196</v>
-      </c>
-      <c r="L47" s="61"/>
-      <c r="M47" s="61"/>
-      <c r="N47" s="61" t="s">
-        <v>2196</v>
-      </c>
-      <c r="O47" s="61"/>
-      <c r="P47" s="61" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A48" s="61" t="s">
-        <v>2197</v>
-      </c>
-      <c r="B48" s="61" t="s">
-        <v>2176</v>
-      </c>
-      <c r="C48" s="61" t="s">
-        <v>2198</v>
-      </c>
-      <c r="D48" s="61">
-        <v>2</v>
-      </c>
-      <c r="E48" s="61">
-        <v>21</v>
-      </c>
-      <c r="F48" s="61"/>
-      <c r="G48" s="61" t="s">
-        <v>2199</v>
-      </c>
-      <c r="H48" s="61" t="s">
-        <v>2242</v>
-      </c>
-      <c r="I48" s="61" t="s">
-        <v>1007</v>
-      </c>
-      <c r="J48" s="160" t="s">
-        <v>1935</v>
-      </c>
-      <c r="K48" s="61"/>
-      <c r="L48" s="61"/>
-      <c r="M48" s="61"/>
-      <c r="N48" s="61"/>
-      <c r="O48" s="61"/>
-      <c r="P48" s="61" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A49" s="61" t="s">
-        <v>2202</v>
-      </c>
-      <c r="B49" s="61" t="s">
-        <v>2176</v>
-      </c>
-      <c r="C49" s="61" t="s">
-        <v>2198</v>
-      </c>
-      <c r="D49" s="61">
-        <v>2</v>
-      </c>
-      <c r="E49" s="61">
-        <v>22</v>
-      </c>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61" t="s">
-        <v>2203</v>
-      </c>
-      <c r="H49" s="61" t="s">
-        <v>2205</v>
-      </c>
-      <c r="I49" s="61" t="s">
-        <v>1024</v>
-      </c>
-      <c r="J49" s="160"/>
-      <c r="K49" s="61" t="s">
-        <v>2206</v>
-      </c>
-      <c r="L49" s="61"/>
-      <c r="M49" s="61"/>
-      <c r="N49" s="61" t="s">
-        <v>2206</v>
-      </c>
-      <c r="O49" s="61"/>
-      <c r="P49" s="61" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A50" s="61" t="s">
-        <v>2207</v>
-      </c>
-      <c r="B50" s="61" t="s">
-        <v>2176</v>
-      </c>
-      <c r="C50" s="61" t="s">
-        <v>2198</v>
-      </c>
-      <c r="D50" s="61">
-        <v>3</v>
-      </c>
-      <c r="E50" s="61">
-        <v>33</v>
-      </c>
-      <c r="F50" s="61"/>
-      <c r="G50" s="61" t="s">
-        <v>2208</v>
-      </c>
-      <c r="H50" s="61" t="s">
-        <v>2251</v>
-      </c>
-      <c r="I50" s="61" t="s">
-        <v>1007</v>
-      </c>
-      <c r="J50" s="160" t="s">
-        <v>1935</v>
-      </c>
-      <c r="K50" s="61"/>
-      <c r="L50" s="61"/>
-      <c r="M50" s="61" t="s">
-        <v>2211</v>
-      </c>
-      <c r="N50" s="61"/>
-      <c r="O50" s="61" t="s">
-        <v>2211</v>
-      </c>
-      <c r="P50" s="61" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A53" s="77" t="s">
+      <c r="Q52" s="161" t="s">
         <v>2252</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="13">
-      <c r="A54" s="61" t="s">
-        <v>2253</v>
-      </c>
-      <c r="B54" s="61" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C54" s="61" t="s">
-        <v>2254</v>
-      </c>
-      <c r="D54" s="61">
-        <v>1</v>
-      </c>
-      <c r="E54" s="61">
-        <v>0.2</v>
-      </c>
-      <c r="F54" s="61"/>
-      <c r="G54" s="61" t="s">
-        <v>1102</v>
-      </c>
-      <c r="H54" s="61" t="s">
-        <v>1104</v>
-      </c>
-      <c r="I54" s="61" t="s">
-        <v>1007</v>
-      </c>
-      <c r="J54" s="160" t="s">
-        <v>1935</v>
-      </c>
-      <c r="K54" s="61"/>
-      <c r="L54" s="61"/>
-      <c r="M54" s="61"/>
-      <c r="N54" s="61"/>
-      <c r="O54" s="61"/>
-      <c r="P54" s="61" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" ht="13">
-      <c r="A55" s="61" t="s">
-        <v>2255</v>
-      </c>
-      <c r="B55" s="61" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C55" s="61" t="s">
-        <v>2254</v>
-      </c>
-      <c r="D55" s="61">
-        <v>1</v>
-      </c>
-      <c r="E55" s="61">
-        <v>0.3</v>
-      </c>
-      <c r="F55" s="61"/>
-      <c r="G55" s="61" t="s">
-        <v>1106</v>
-      </c>
-      <c r="H55" s="61" t="s">
-        <v>1108</v>
-      </c>
-      <c r="I55" s="61" t="s">
-        <v>1007</v>
-      </c>
-      <c r="J55" s="159" t="s">
-        <v>199</v>
-      </c>
-      <c r="K55" s="61"/>
-      <c r="L55" s="61"/>
-      <c r="M55" s="61"/>
-      <c r="N55" s="61"/>
-      <c r="O55" s="61"/>
-      <c r="P55" s="61" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="13">
-      <c r="A56" s="61" t="s">
-        <v>2256</v>
-      </c>
-      <c r="B56" s="61" t="s">
-        <v>2257</v>
-      </c>
-      <c r="C56" s="61" t="s">
-        <v>2254</v>
-      </c>
-      <c r="D56" s="61">
-        <v>2</v>
-      </c>
-      <c r="E56" s="61">
-        <v>1</v>
-      </c>
-      <c r="F56" s="61"/>
-      <c r="G56" s="61" t="s">
-        <v>2258</v>
-      </c>
-      <c r="H56" s="61" t="s">
-        <v>2259</v>
-      </c>
-      <c r="I56" s="61" t="s">
-        <v>1007</v>
-      </c>
-      <c r="J56" s="160" t="s">
-        <v>1935</v>
-      </c>
-      <c r="K56" s="61"/>
-      <c r="L56" s="61"/>
-      <c r="M56" s="61"/>
-      <c r="N56" s="61"/>
-      <c r="O56" s="61"/>
-      <c r="P56" s="61" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" ht="13">
-      <c r="A57" s="61" t="s">
-        <v>2260</v>
-      </c>
-      <c r="B57" s="61" t="s">
-        <v>2257</v>
-      </c>
-      <c r="C57" s="61" t="s">
-        <v>2254</v>
-      </c>
-      <c r="D57" s="61">
-        <v>2</v>
-      </c>
-      <c r="E57" s="61">
-        <v>1.4</v>
-      </c>
-      <c r="F57" s="61"/>
-      <c r="G57" s="61" t="s">
-        <v>2261</v>
-      </c>
-      <c r="H57" s="61" t="s">
-        <v>2262</v>
-      </c>
-      <c r="I57" s="61" t="s">
-        <v>1007</v>
-      </c>
-      <c r="J57" s="160" t="s">
-        <v>2263</v>
-      </c>
-      <c r="K57" s="61"/>
-      <c r="L57" s="61"/>
-      <c r="M57" s="61" t="s">
-        <v>2264</v>
-      </c>
-      <c r="N57" s="61"/>
-      <c r="O57" s="61" t="s">
-        <v>2265</v>
-      </c>
-      <c r="P57" s="61" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" ht="13">
-      <c r="A58" s="61" t="s">
-        <v>2266</v>
-      </c>
-      <c r="B58" s="61" t="s">
-        <v>2257</v>
-      </c>
-      <c r="C58" s="61" t="s">
-        <v>2254</v>
-      </c>
-      <c r="D58" s="61">
-        <v>2</v>
-      </c>
-      <c r="E58" s="61">
-        <v>1.41</v>
-      </c>
-      <c r="F58" s="61"/>
-      <c r="G58" s="61" t="s">
-        <v>2267</v>
-      </c>
-      <c r="H58" s="61" t="s">
-        <v>2268</v>
-      </c>
-      <c r="I58" s="61" t="s">
-        <v>1007</v>
-      </c>
-      <c r="J58" s="159" t="s">
-        <v>366</v>
-      </c>
-      <c r="K58" s="61"/>
-      <c r="L58" s="61"/>
-      <c r="M58" s="61" t="s">
-        <v>2269</v>
-      </c>
-      <c r="N58" s="61"/>
-      <c r="O58" s="61" t="s">
-        <v>2269</v>
-      </c>
-      <c r="P58" s="61" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" ht="13">
-      <c r="A59" s="61" t="s">
-        <v>2270</v>
-      </c>
-      <c r="B59" s="61" t="s">
-        <v>2257</v>
-      </c>
-      <c r="C59" s="61" t="s">
-        <v>2254</v>
-      </c>
-      <c r="D59" s="61">
-        <v>2</v>
-      </c>
-      <c r="E59" s="61">
-        <v>21</v>
-      </c>
-      <c r="F59" s="61"/>
-      <c r="G59" s="61" t="s">
-        <v>2271</v>
-      </c>
-      <c r="H59" s="61" t="s">
-        <v>2272</v>
-      </c>
-      <c r="I59" s="61" t="s">
-        <v>1007</v>
-      </c>
-      <c r="J59" s="61" t="s">
-        <v>1935</v>
-      </c>
-      <c r="K59" s="61"/>
-      <c r="L59" s="61"/>
-      <c r="M59" s="61"/>
-      <c r="N59" s="61"/>
-      <c r="O59" s="61"/>
-      <c r="P59" s="61" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" ht="13">
-      <c r="A60" s="61" t="s">
-        <v>2273</v>
-      </c>
-      <c r="B60" s="61" t="s">
-        <v>2257</v>
-      </c>
-      <c r="C60" s="61" t="s">
-        <v>2254</v>
-      </c>
-      <c r="D60" s="61">
-        <v>2</v>
-      </c>
-      <c r="E60" s="61">
-        <v>22</v>
-      </c>
-      <c r="F60" s="61"/>
-      <c r="G60" s="61" t="s">
-        <v>2274</v>
-      </c>
-      <c r="H60" s="61" t="s">
-        <v>2275</v>
-      </c>
-      <c r="I60" s="61" t="s">
-        <v>1007</v>
-      </c>
-      <c r="J60" s="61" t="s">
-        <v>2263</v>
-      </c>
-      <c r="K60" s="61"/>
-      <c r="L60" s="61"/>
-      <c r="M60" s="61" t="s">
-        <v>2265</v>
-      </c>
-      <c r="N60" s="61"/>
-      <c r="O60" s="61" t="s">
-        <v>2265</v>
-      </c>
-      <c r="P60" s="61" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" ht="13">
-      <c r="A61" s="61" t="s">
-        <v>2276</v>
-      </c>
-      <c r="B61" s="61" t="s">
-        <v>2257</v>
-      </c>
-      <c r="C61" s="61" t="s">
-        <v>2254</v>
-      </c>
-      <c r="D61" s="61">
-        <v>2</v>
-      </c>
-      <c r="E61" s="61">
-        <v>23</v>
-      </c>
-      <c r="F61" s="61"/>
-      <c r="G61" s="61" t="s">
-        <v>2277</v>
-      </c>
-      <c r="H61" s="61" t="s">
-        <v>2278</v>
-      </c>
-      <c r="I61" s="61" t="s">
-        <v>1007</v>
-      </c>
-      <c r="J61" s="159" t="s">
-        <v>42</v>
-      </c>
-      <c r="K61" s="61"/>
-      <c r="L61" s="61"/>
-      <c r="M61" s="61"/>
-      <c r="N61" s="61"/>
-      <c r="O61" s="61" t="s">
-        <v>2279</v>
-      </c>
-      <c r="P61" s="61" t="s">
-        <v>1018</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J4" r:id="rId1" location="_VISIT" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
     <hyperlink ref="J8" r:id="rId2" location="_SPECNUM" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
-    <hyperlink ref="J23" r:id="rId3" location="ND" xr:uid="{00000000-0004-0000-0D00-000002000000}"/>
-    <hyperlink ref="J30" r:id="rId4" location="_VISIT" xr:uid="{00000000-0004-0000-0D00-000003000000}"/>
-    <hyperlink ref="J31" r:id="rId5" location="NY" xr:uid="{00000000-0004-0000-0D00-000004000000}"/>
-    <hyperlink ref="J33" r:id="rId6" location="_SPECNUM" xr:uid="{00000000-0004-0000-0D00-000005000000}"/>
-    <hyperlink ref="J37" r:id="rId7" location="NY" xr:uid="{00000000-0004-0000-0D00-000006000000}"/>
-    <hyperlink ref="J38" r:id="rId8" location="NY" xr:uid="{00000000-0004-0000-0D00-000007000000}"/>
-    <hyperlink ref="J44" r:id="rId9" location="_VISIT" xr:uid="{00000000-0004-0000-0D00-000008000000}"/>
-    <hyperlink ref="J55" r:id="rId10" location="_VISIT" xr:uid="{00000000-0004-0000-0D00-000009000000}"/>
-    <hyperlink ref="J58" r:id="rId11" location="ND" xr:uid="{00000000-0004-0000-0D00-00000A000000}"/>
-    <hyperlink ref="J61" r:id="rId12" location="NY" xr:uid="{00000000-0004-0000-0D00-00000B000000}"/>
+    <hyperlink ref="J22" r:id="rId3" location="ND" xr:uid="{656528CE-FBD6-0E41-AC2D-431B4DBED978}"/>
+    <hyperlink ref="J26" r:id="rId4" location="_VISIT" xr:uid="{9065DB40-3A17-3D4C-8184-F7784B556B62}"/>
+    <hyperlink ref="J27" r:id="rId5" location="NY" xr:uid="{7E9AC47D-981F-8F46-B311-188155890F36}"/>
+    <hyperlink ref="J29" r:id="rId6" location="_SPECNUM" xr:uid="{E6B62EB3-990C-2E48-B3E4-9BFD7ECD87EF}"/>
+    <hyperlink ref="J33" r:id="rId7" location="NY" xr:uid="{22A4D626-D081-1F43-B3A3-01825FEAE04A}"/>
+    <hyperlink ref="J34" r:id="rId8" location="NY" xr:uid="{174F50DF-305A-854D-BB06-FE1174F5C715}"/>
+    <hyperlink ref="J38" r:id="rId9" location="_VISIT" xr:uid="{9B7A4809-8527-2A4B-951B-D8A2C2E02B2E}"/>
+    <hyperlink ref="J46" r:id="rId10" location="_VISIT" xr:uid="{A9D8858E-EF9C-8D4F-959C-9FDD3CC1388E}"/>
+    <hyperlink ref="J49" r:id="rId11" location="ND" xr:uid="{440C297A-DF97-2F4D-A9C4-D9615C247871}"/>
+    <hyperlink ref="J52" r:id="rId12" location="NY" xr:uid="{61162830-73BC-7548-86A2-F907A9A392F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -49547,7 +49659,7 @@
   </sheetPr>
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -50292,7 +50404,7 @@
   </sheetPr>
   <dimension ref="A1:AD25"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
@@ -50350,7 +50462,7 @@
       <c r="P1" s="58" t="s">
         <v>1001</v>
       </c>
-      <c r="Q1" s="163" t="s">
+      <c r="Q1" s="162" t="s">
         <v>2280</v>
       </c>
       <c r="R1" s="24"/>
@@ -50604,7 +50716,7 @@
       <c r="P7" s="68" t="s">
         <v>1018</v>
       </c>
-      <c r="Q7" s="162" t="s">
+      <c r="Q7" s="161" t="s">
         <v>1030</v>
       </c>
     </row>
@@ -50645,7 +50757,7 @@
       <c r="P8" s="68" t="s">
         <v>1018</v>
       </c>
-      <c r="Q8" s="162" t="s">
+      <c r="Q8" s="161" t="s">
         <v>1030</v>
       </c>
     </row>
@@ -50686,7 +50798,7 @@
       <c r="P9" s="68" t="s">
         <v>1018</v>
       </c>
-      <c r="Q9" s="162" t="s">
+      <c r="Q9" s="161" t="s">
         <v>1030</v>
       </c>
     </row>
@@ -50709,7 +50821,7 @@
       <c r="N10" s="72"/>
       <c r="O10" s="72"/>
       <c r="P10" s="72"/>
-      <c r="Q10" s="162" t="s">
+      <c r="Q10" s="161" t="s">
         <v>1030</v>
       </c>
     </row>
@@ -50752,7 +50864,7 @@
       <c r="P11" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q11" s="162" t="s">
+      <c r="Q11" s="161" t="s">
         <v>1044</v>
       </c>
     </row>
@@ -50777,7 +50889,7 @@
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="76"/>
-      <c r="Q12" s="162" t="s">
+      <c r="Q12" s="161" t="s">
         <v>1044</v>
       </c>
     </row>
@@ -50820,7 +50932,7 @@
       <c r="P13" s="60" t="s">
         <v>1008</v>
       </c>
-      <c r="Q13" s="162" t="s">
+      <c r="Q13" s="161" t="s">
         <v>1052</v>
       </c>
     </row>
@@ -50863,7 +50975,7 @@
       <c r="P14" s="79" t="s">
         <v>1060</v>
       </c>
-      <c r="Q14" s="162" t="s">
+      <c r="Q14" s="161" t="s">
         <v>1052</v>
       </c>
     </row>
@@ -50904,7 +51016,7 @@
       <c r="P15" s="79" t="s">
         <v>1060</v>
       </c>
-      <c r="Q15" s="162" t="s">
+      <c r="Q15" s="161" t="s">
         <v>1052</v>
       </c>
     </row>
@@ -50945,7 +51057,7 @@
       <c r="P16" s="79" t="s">
         <v>1060</v>
       </c>
-      <c r="Q16" s="162" t="s">
+      <c r="Q16" s="161" t="s">
         <v>1052</v>
       </c>
     </row>
@@ -50986,7 +51098,7 @@
       <c r="P17" s="60" t="s">
         <v>1008</v>
       </c>
-      <c r="Q17" s="162" t="s">
+      <c r="Q17" s="161" t="s">
         <v>1052</v>
       </c>
     </row>
@@ -51027,7 +51139,7 @@
       <c r="P18" s="60" t="s">
         <v>1008</v>
       </c>
-      <c r="Q18" s="162" t="s">
+      <c r="Q18" s="161" t="s">
         <v>1052</v>
       </c>
     </row>
@@ -51076,7 +51188,7 @@
       <c r="P19" s="60" t="s">
         <v>1008</v>
       </c>
-      <c r="Q19" s="162" t="s">
+      <c r="Q19" s="161" t="s">
         <v>1052</v>
       </c>
     </row>
@@ -51121,7 +51233,7 @@
       <c r="P20" s="60" t="s">
         <v>1008</v>
       </c>
-      <c r="Q20" s="162" t="s">
+      <c r="Q20" s="161" t="s">
         <v>1052</v>
       </c>
     </row>
@@ -51168,7 +51280,7 @@
       <c r="P21" s="60" t="s">
         <v>1008</v>
       </c>
-      <c r="Q21" s="162" t="s">
+      <c r="Q21" s="161" t="s">
         <v>1052</v>
       </c>
     </row>
@@ -51205,7 +51317,7 @@
       <c r="N22" s="79"/>
       <c r="O22" s="79"/>
       <c r="P22" s="79"/>
-      <c r="Q22" s="162" t="s">
+      <c r="Q22" s="161" t="s">
         <v>1052</v>
       </c>
     </row>
@@ -51248,7 +51360,7 @@
       <c r="P23" s="79" t="s">
         <v>1060</v>
       </c>
-      <c r="Q23" s="162" t="s">
+      <c r="Q23" s="161" t="s">
         <v>1052</v>
       </c>
     </row>
@@ -51293,7 +51405,7 @@
       <c r="P24" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q24" s="162" t="s">
+      <c r="Q24" s="161" t="s">
         <v>1052</v>
       </c>
     </row>
@@ -51324,7 +51436,7 @@
   </sheetPr>
   <dimension ref="A1:AD51"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
@@ -51383,7 +51495,7 @@
       <c r="P1" s="58" t="s">
         <v>1001</v>
       </c>
-      <c r="Q1" s="163" t="s">
+      <c r="Q1" s="162" t="s">
         <v>2280</v>
       </c>
       <c r="R1" s="24"/>
@@ -51577,7 +51689,7 @@
       <c r="P5" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q5" s="164" t="s">
+      <c r="Q5" s="163" t="s">
         <v>1109</v>
       </c>
     </row>
@@ -51628,7 +51740,7 @@
       <c r="P6" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q6" s="164" t="s">
+      <c r="Q6" s="163" t="s">
         <v>1109</v>
       </c>
     </row>
@@ -51677,7 +51789,7 @@
       <c r="P7" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q7" s="164" t="s">
+      <c r="Q7" s="163" t="s">
         <v>1109</v>
       </c>
     </row>
@@ -51722,7 +51834,7 @@
       <c r="P8" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q8" s="164" t="s">
+      <c r="Q8" s="163" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -51769,7 +51881,7 @@
       <c r="P9" s="60" t="s">
         <v>1008</v>
       </c>
-      <c r="Q9" s="164" t="s">
+      <c r="Q9" s="163" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -51814,7 +51926,7 @@
       <c r="P10" s="60" t="s">
         <v>1008</v>
       </c>
-      <c r="Q10" s="164" t="s">
+      <c r="Q10" s="163" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -51859,7 +51971,7 @@
       <c r="P11" s="60" t="s">
         <v>1008</v>
       </c>
-      <c r="Q11" s="164" t="s">
+      <c r="Q11" s="163" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -51904,7 +52016,7 @@
       <c r="P12" s="60" t="s">
         <v>1008</v>
       </c>
-      <c r="Q12" s="164" t="s">
+      <c r="Q12" s="163" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -51953,7 +52065,7 @@
       <c r="P13" s="60" t="s">
         <v>1008</v>
       </c>
-      <c r="Q13" s="164" t="s">
+      <c r="Q13" s="163" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -51998,7 +52110,7 @@
       <c r="P14" s="60" t="s">
         <v>1008</v>
       </c>
-      <c r="Q14" s="164" t="s">
+      <c r="Q14" s="163" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -52043,7 +52155,7 @@
       <c r="P15" s="60" t="s">
         <v>1008</v>
       </c>
-      <c r="Q15" s="164" t="s">
+      <c r="Q15" s="163" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -52090,7 +52202,7 @@
       <c r="P16" s="79" t="s">
         <v>1060</v>
       </c>
-      <c r="Q16" s="164" t="s">
+      <c r="Q16" s="163" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -52135,7 +52247,7 @@
       <c r="P17" s="79" t="s">
         <v>1060</v>
       </c>
-      <c r="Q17" s="164" t="s">
+      <c r="Q17" s="163" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -52180,7 +52292,7 @@
       <c r="P18" s="79" t="s">
         <v>1060</v>
       </c>
-      <c r="Q18" s="164" t="s">
+      <c r="Q18" s="163" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -52225,7 +52337,7 @@
       <c r="P19" s="79" t="s">
         <v>1060</v>
       </c>
-      <c r="Q19" s="164" t="s">
+      <c r="Q19" s="163" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -52274,7 +52386,7 @@
       <c r="P20" s="79" t="s">
         <v>1060</v>
       </c>
-      <c r="Q20" s="164" t="s">
+      <c r="Q20" s="163" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -52319,7 +52431,7 @@
       <c r="P21" s="79" t="s">
         <v>1060</v>
       </c>
-      <c r="Q21" s="164" t="s">
+      <c r="Q21" s="163" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -52364,7 +52476,7 @@
       <c r="P22" s="79" t="s">
         <v>1060</v>
       </c>
-      <c r="Q22" s="164" t="s">
+      <c r="Q22" s="163" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -52411,7 +52523,7 @@
       <c r="P23" s="79" t="s">
         <v>1060</v>
       </c>
-      <c r="Q23" s="164" t="s">
+      <c r="Q23" s="163" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -52456,7 +52568,7 @@
       <c r="P24" s="79" t="s">
         <v>1060</v>
       </c>
-      <c r="Q24" s="164" t="s">
+      <c r="Q24" s="163" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -52501,7 +52613,7 @@
       <c r="P25" s="79" t="s">
         <v>1060</v>
       </c>
-      <c r="Q25" s="164" t="s">
+      <c r="Q25" s="163" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -52546,7 +52658,7 @@
       <c r="P26" s="79" t="s">
         <v>1060</v>
       </c>
-      <c r="Q26" s="164" t="s">
+      <c r="Q26" s="163" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -52595,7 +52707,7 @@
       <c r="P27" s="79" t="s">
         <v>1060</v>
       </c>
-      <c r="Q27" s="164" t="s">
+      <c r="Q27" s="163" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -52640,7 +52752,7 @@
       <c r="P28" s="79" t="s">
         <v>1060</v>
       </c>
-      <c r="Q28" s="164" t="s">
+      <c r="Q28" s="163" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -52685,7 +52797,7 @@
       <c r="P29" s="79" t="s">
         <v>1060</v>
       </c>
-      <c r="Q29" s="164" t="s">
+      <c r="Q29" s="163" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -52732,7 +52844,7 @@
       <c r="P30" s="79" t="s">
         <v>1060</v>
       </c>
-      <c r="Q30" s="164" t="s">
+      <c r="Q30" s="163" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -52777,7 +52889,7 @@
       <c r="P31" s="79" t="s">
         <v>1060</v>
       </c>
-      <c r="Q31" s="164" t="s">
+      <c r="Q31" s="163" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -52822,7 +52934,7 @@
       <c r="P32" s="79" t="s">
         <v>1060</v>
       </c>
-      <c r="Q32" s="164" t="s">
+      <c r="Q32" s="163" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -52867,7 +52979,7 @@
       <c r="P33" s="79" t="s">
         <v>1060</v>
       </c>
-      <c r="Q33" s="164" t="s">
+      <c r="Q33" s="163" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -52912,7 +53024,7 @@
       <c r="P34" s="79" t="s">
         <v>1060</v>
       </c>
-      <c r="Q34" s="164" t="s">
+      <c r="Q34" s="163" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -52961,7 +53073,7 @@
       <c r="P35" s="79" t="s">
         <v>1060</v>
       </c>
-      <c r="Q35" s="164" t="s">
+      <c r="Q35" s="163" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -53006,7 +53118,7 @@
       <c r="P36" s="79" t="s">
         <v>1060</v>
       </c>
-      <c r="Q36" s="164" t="s">
+      <c r="Q36" s="163" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -53051,7 +53163,7 @@
       <c r="P37" s="79" t="s">
         <v>1060</v>
       </c>
-      <c r="Q37" s="164" t="s">
+      <c r="Q37" s="163" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -53096,7 +53208,7 @@
       <c r="P38" s="79" t="s">
         <v>1060</v>
       </c>
-      <c r="Q38" s="164" t="s">
+      <c r="Q38" s="163" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -53125,7 +53237,7 @@
       <c r="N39" s="92"/>
       <c r="O39" s="92"/>
       <c r="P39" s="92"/>
-      <c r="Q39" s="164" t="s">
+      <c r="Q39" s="163" t="s">
         <v>1126</v>
       </c>
       <c r="R39" s="76"/>
@@ -53167,7 +53279,7 @@
       <c r="N40" s="92"/>
       <c r="O40" s="92"/>
       <c r="P40" s="92"/>
-      <c r="Q40" s="164" t="s">
+      <c r="Q40" s="163" t="s">
         <v>1126</v>
       </c>
       <c r="R40" s="76"/>
@@ -53209,7 +53321,7 @@
       <c r="N41" s="92"/>
       <c r="O41" s="92"/>
       <c r="P41" s="92"/>
-      <c r="Q41" s="164" t="s">
+      <c r="Q41" s="163" t="s">
         <v>1126</v>
       </c>
       <c r="R41" s="76"/>
@@ -53255,7 +53367,7 @@
       <c r="N42" s="97"/>
       <c r="O42" s="97"/>
       <c r="P42" s="97"/>
-      <c r="Q42" s="162" t="s">
+      <c r="Q42" s="161" t="s">
         <v>1272</v>
       </c>
     </row>
@@ -53304,7 +53416,7 @@
       <c r="P43" s="60" t="s">
         <v>1008</v>
       </c>
-      <c r="Q43" s="162" t="s">
+      <c r="Q43" s="161" t="s">
         <v>1272</v>
       </c>
     </row>
@@ -53349,7 +53461,7 @@
       <c r="P44" s="60" t="s">
         <v>1008</v>
       </c>
-      <c r="Q44" s="162" t="s">
+      <c r="Q44" s="161" t="s">
         <v>1272</v>
       </c>
     </row>
@@ -53394,7 +53506,7 @@
       <c r="P45" s="60" t="s">
         <v>1008</v>
       </c>
-      <c r="Q45" s="162" t="s">
+      <c r="Q45" s="161" t="s">
         <v>1272</v>
       </c>
     </row>
@@ -53437,7 +53549,7 @@
       <c r="N46" s="101"/>
       <c r="O46" s="101"/>
       <c r="P46" s="101"/>
-      <c r="Q46" s="162" t="s">
+      <c r="Q46" s="161" t="s">
         <v>1289</v>
       </c>
     </row>
@@ -53460,7 +53572,7 @@
       <c r="N47" s="103"/>
       <c r="O47" s="103"/>
       <c r="P47" s="103"/>
-      <c r="Q47" s="162" t="s">
+      <c r="Q47" s="161" t="s">
         <v>1289</v>
       </c>
     </row>
@@ -53505,7 +53617,7 @@
       <c r="P48" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q48" s="162" t="s">
+      <c r="Q48" s="161" t="s">
         <v>1294</v>
       </c>
     </row>
@@ -53548,7 +53660,7 @@
       <c r="P49" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q49" s="162" t="s">
+      <c r="Q49" s="161" t="s">
         <v>1294</v>
       </c>
     </row>
@@ -53593,7 +53705,7 @@
       <c r="P50" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q50" s="162" t="s">
+      <c r="Q50" s="161" t="s">
         <v>1294</v>
       </c>
     </row>
@@ -53636,7 +53748,7 @@
       <c r="P51" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q51" s="162" t="s">
+      <c r="Q51" s="161" t="s">
         <v>1294</v>
       </c>
     </row>
@@ -53671,7 +53783,7 @@
   </sheetPr>
   <dimension ref="A1:AD40"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
@@ -53730,7 +53842,7 @@
       <c r="P1" s="58" t="s">
         <v>1001</v>
       </c>
-      <c r="Q1" s="163" t="s">
+      <c r="Q1" s="162" t="s">
         <v>2280</v>
       </c>
       <c r="R1" s="24"/>
@@ -54100,7 +54212,7 @@
       <c r="P9" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q9" s="164" t="s">
+      <c r="Q9" s="163" t="s">
         <v>1338</v>
       </c>
     </row>
@@ -54145,7 +54257,7 @@
       <c r="P10" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q10" s="164" t="s">
+      <c r="Q10" s="163" t="s">
         <v>1338</v>
       </c>
     </row>
@@ -54188,7 +54300,7 @@
       <c r="P11" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q11" s="164" t="s">
+      <c r="Q11" s="163" t="s">
         <v>1338</v>
       </c>
     </row>
@@ -54231,7 +54343,7 @@
       <c r="P12" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q12" s="164" t="s">
+      <c r="Q12" s="163" t="s">
         <v>1338</v>
       </c>
     </row>
@@ -54274,7 +54386,7 @@
       <c r="P13" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q13" s="164" t="s">
+      <c r="Q13" s="163" t="s">
         <v>1338</v>
       </c>
     </row>
@@ -54321,7 +54433,7 @@
       <c r="P14" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q14" s="164" t="s">
+      <c r="Q14" s="163" t="s">
         <v>1338</v>
       </c>
     </row>
@@ -54364,7 +54476,7 @@
       <c r="P15" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q15" s="164" t="s">
+      <c r="Q15" s="163" t="s">
         <v>1338</v>
       </c>
     </row>
@@ -54407,7 +54519,7 @@
       <c r="P16" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q16" s="164" t="s">
+      <c r="Q16" s="163" t="s">
         <v>1338</v>
       </c>
     </row>
@@ -54450,7 +54562,7 @@
       <c r="P17" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q17" s="164" t="s">
+      <c r="Q17" s="163" t="s">
         <v>1338</v>
       </c>
     </row>
@@ -54482,7 +54594,7 @@
       <c r="I18" s="79" t="s">
         <v>1007</v>
       </c>
-      <c r="J18" s="169" t="s">
+      <c r="J18" s="168" t="s">
         <v>1068</v>
       </c>
       <c r="K18" s="79"/>
@@ -54493,7 +54605,7 @@
       <c r="P18" s="79" t="s">
         <v>1060</v>
       </c>
-      <c r="Q18" s="164" t="s">
+      <c r="Q18" s="163" t="s">
         <v>1338</v>
       </c>
     </row>
@@ -54538,7 +54650,7 @@
       <c r="P19" s="60" t="s">
         <v>1008</v>
       </c>
-      <c r="Q19" s="164" t="s">
+      <c r="Q19" s="163" t="s">
         <v>1338</v>
       </c>
     </row>
@@ -54585,7 +54697,7 @@
       <c r="P20" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q20" s="165" t="s">
+      <c r="Q20" s="164" t="s">
         <v>1386</v>
       </c>
     </row>
@@ -54630,7 +54742,7 @@
       <c r="P21" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q21" s="165" t="s">
+      <c r="Q21" s="164" t="s">
         <v>1386</v>
       </c>
     </row>
@@ -54675,7 +54787,7 @@
       <c r="P22" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q22" s="165" t="s">
+      <c r="Q22" s="164" t="s">
         <v>1386</v>
       </c>
     </row>
@@ -54720,7 +54832,7 @@
       <c r="P23" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q23" s="165" t="s">
+      <c r="Q23" s="164" t="s">
         <v>1386</v>
       </c>
     </row>
@@ -54765,7 +54877,7 @@
       <c r="P24" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q24" s="165" t="s">
+      <c r="Q24" s="164" t="s">
         <v>1386</v>
       </c>
     </row>
@@ -54810,7 +54922,7 @@
       <c r="P25" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q25" s="165" t="s">
+      <c r="Q25" s="164" t="s">
         <v>1386</v>
       </c>
     </row>
@@ -54855,7 +54967,7 @@
       <c r="P26" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q26" s="165" t="s">
+      <c r="Q26" s="164" t="s">
         <v>1386</v>
       </c>
     </row>
@@ -54900,7 +55012,7 @@
       <c r="P27" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q27" s="165" t="s">
+      <c r="Q27" s="164" t="s">
         <v>1386</v>
       </c>
     </row>
@@ -54945,7 +55057,7 @@
       <c r="P28" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q28" s="165" t="s">
+      <c r="Q28" s="164" t="s">
         <v>1386</v>
       </c>
     </row>
@@ -54990,7 +55102,7 @@
       <c r="P29" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q29" s="165" t="s">
+      <c r="Q29" s="164" t="s">
         <v>1386</v>
       </c>
     </row>
@@ -55033,7 +55145,7 @@
       <c r="P30" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q30" s="165" t="s">
+      <c r="Q30" s="164" t="s">
         <v>1386</v>
       </c>
     </row>
@@ -55078,7 +55190,7 @@
       <c r="P31" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q31" s="165" t="s">
+      <c r="Q31" s="164" t="s">
         <v>1386</v>
       </c>
     </row>
@@ -55123,7 +55235,7 @@
       <c r="P32" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q32" s="165" t="s">
+      <c r="Q32" s="164" t="s">
         <v>1386</v>
       </c>
     </row>
@@ -55168,7 +55280,7 @@
       <c r="P33" s="79" t="s">
         <v>1060</v>
       </c>
-      <c r="Q33" s="165" t="s">
+      <c r="Q33" s="164" t="s">
         <v>1386</v>
       </c>
     </row>
@@ -55211,7 +55323,7 @@
       <c r="P34" s="79" t="s">
         <v>1060</v>
       </c>
-      <c r="Q34" s="165" t="s">
+      <c r="Q34" s="164" t="s">
         <v>1386</v>
       </c>
     </row>
@@ -55256,7 +55368,7 @@
       <c r="P35" s="79" t="s">
         <v>1060</v>
       </c>
-      <c r="Q35" s="165" t="s">
+      <c r="Q35" s="164" t="s">
         <v>1386</v>
       </c>
     </row>
@@ -55299,7 +55411,7 @@
       <c r="P36" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q36" s="165" t="s">
+      <c r="Q36" s="164" t="s">
         <v>2281</v>
       </c>
     </row>
@@ -55346,7 +55458,7 @@
       <c r="P37" s="60" t="s">
         <v>1008</v>
       </c>
-      <c r="Q37" s="165" t="s">
+      <c r="Q37" s="164" t="s">
         <v>1459</v>
       </c>
     </row>
@@ -55393,7 +55505,7 @@
       <c r="P38" s="60" t="s">
         <v>1008</v>
       </c>
-      <c r="Q38" s="165" t="s">
+      <c r="Q38" s="164" t="s">
         <v>1459</v>
       </c>
     </row>
@@ -55442,7 +55554,7 @@
       <c r="P39" s="60" t="s">
         <v>1008</v>
       </c>
-      <c r="Q39" s="165" t="s">
+      <c r="Q39" s="164" t="s">
         <v>1459</v>
       </c>
     </row>
@@ -55491,7 +55603,7 @@
       <c r="P40" s="60" t="s">
         <v>1008</v>
       </c>
-      <c r="Q40" s="165" t="s">
+      <c r="Q40" s="164" t="s">
         <v>1459</v>
       </c>
     </row>
@@ -55583,7 +55695,7 @@
       <c r="P1" s="58" t="s">
         <v>1001</v>
       </c>
-      <c r="Q1" s="166" t="s">
+      <c r="Q1" s="165" t="s">
         <v>2280</v>
       </c>
       <c r="R1" s="24"/>
@@ -55775,7 +55887,7 @@
       <c r="P5" s="111" t="s">
         <v>1018</v>
       </c>
-      <c r="Q5" s="164" t="s">
+      <c r="Q5" s="163" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -55822,7 +55934,7 @@
       <c r="P6" s="111" t="s">
         <v>1018</v>
       </c>
-      <c r="Q6" s="164" t="s">
+      <c r="Q6" s="163" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -55853,7 +55965,7 @@
       <c r="N7" s="64"/>
       <c r="O7" s="64"/>
       <c r="P7" s="64"/>
-      <c r="Q7" s="164" t="s">
+      <c r="Q7" s="163" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -55884,7 +55996,7 @@
       <c r="N8" s="64"/>
       <c r="O8" s="64"/>
       <c r="P8" s="64"/>
-      <c r="Q8" s="164" t="s">
+      <c r="Q8" s="163" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -55927,7 +56039,7 @@
       <c r="P9" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q9" s="164" t="s">
+      <c r="Q9" s="163" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -55976,7 +56088,7 @@
       <c r="P10" s="111" t="s">
         <v>1018</v>
       </c>
-      <c r="Q10" s="164" t="s">
+      <c r="Q10" s="163" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -56025,7 +56137,7 @@
       <c r="P11" s="111" t="s">
         <v>1018</v>
       </c>
-      <c r="Q11" s="164" t="s">
+      <c r="Q11" s="163" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -56074,7 +56186,7 @@
       <c r="P12" s="111" t="s">
         <v>1018</v>
       </c>
-      <c r="Q12" s="164" t="s">
+      <c r="Q12" s="163" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -56123,7 +56235,7 @@
       <c r="P13" s="111" t="s">
         <v>1018</v>
       </c>
-      <c r="Q13" s="164" t="s">
+      <c r="Q13" s="163" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -56172,7 +56284,7 @@
       <c r="P14" s="111" t="s">
         <v>1018</v>
       </c>
-      <c r="Q14" s="164" t="s">
+      <c r="Q14" s="163" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -56221,7 +56333,7 @@
       <c r="P15" s="111" t="s">
         <v>1018</v>
       </c>
-      <c r="Q15" s="164" t="s">
+      <c r="Q15" s="163" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -56254,7 +56366,7 @@
       <c r="N16" s="64"/>
       <c r="O16" s="64"/>
       <c r="P16" s="64"/>
-      <c r="Q16" s="164" t="s">
+      <c r="Q16" s="163" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -56285,7 +56397,7 @@
       <c r="N17" s="64"/>
       <c r="O17" s="64"/>
       <c r="P17" s="64"/>
-      <c r="Q17" s="164" t="s">
+      <c r="Q17" s="163" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -56316,7 +56428,7 @@
       <c r="N18" s="64"/>
       <c r="O18" s="64"/>
       <c r="P18" s="64"/>
-      <c r="Q18" s="164" t="s">
+      <c r="Q18" s="163" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -56347,7 +56459,7 @@
       <c r="N19" s="64"/>
       <c r="O19" s="64"/>
       <c r="P19" s="64"/>
-      <c r="Q19" s="164" t="s">
+      <c r="Q19" s="163" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -56378,7 +56490,7 @@
       <c r="N20" s="64"/>
       <c r="O20" s="64"/>
       <c r="P20" s="64"/>
-      <c r="Q20" s="164" t="s">
+      <c r="Q20" s="163" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -56409,7 +56521,7 @@
       <c r="N21" s="64"/>
       <c r="O21" s="64"/>
       <c r="P21" s="64"/>
-      <c r="Q21" s="164" t="s">
+      <c r="Q21" s="163" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -56440,7 +56552,7 @@
       <c r="N22" s="64"/>
       <c r="O22" s="64"/>
       <c r="P22" s="64"/>
-      <c r="Q22" s="164" t="s">
+      <c r="Q22" s="163" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -56485,7 +56597,7 @@
       <c r="P23" s="111" t="s">
         <v>1018</v>
       </c>
-      <c r="Q23" s="164" t="s">
+      <c r="Q23" s="163" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -56530,7 +56642,7 @@
       <c r="P24" s="111" t="s">
         <v>1018</v>
       </c>
-      <c r="Q24" s="164" t="s">
+      <c r="Q24" s="163" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -56575,7 +56687,7 @@
       <c r="P25" s="111" t="s">
         <v>1018</v>
       </c>
-      <c r="Q25" s="164" t="s">
+      <c r="Q25" s="163" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -56620,7 +56732,7 @@
       <c r="P26" s="111" t="s">
         <v>1018</v>
       </c>
-      <c r="Q26" s="164" t="s">
+      <c r="Q26" s="163" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -56665,7 +56777,7 @@
       <c r="P27" s="111" t="s">
         <v>1018</v>
       </c>
-      <c r="Q27" s="164" t="s">
+      <c r="Q27" s="163" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -56710,7 +56822,7 @@
       <c r="P28" s="111" t="s">
         <v>1018</v>
       </c>
-      <c r="Q28" s="164" t="s">
+      <c r="Q28" s="163" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -56755,7 +56867,7 @@
       <c r="P29" s="111" t="s">
         <v>1018</v>
       </c>
-      <c r="Q29" s="164" t="s">
+      <c r="Q29" s="163" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -56800,7 +56912,7 @@
       <c r="P30" s="111" t="s">
         <v>1018</v>
       </c>
-      <c r="Q30" s="164" t="s">
+      <c r="Q30" s="163" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -56845,7 +56957,7 @@
       <c r="P31" s="111" t="s">
         <v>1018</v>
       </c>
-      <c r="Q31" s="164" t="s">
+      <c r="Q31" s="163" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -56890,7 +57002,7 @@
       <c r="P32" s="111" t="s">
         <v>1018</v>
       </c>
-      <c r="Q32" s="164" t="s">
+      <c r="Q32" s="163" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -56935,7 +57047,7 @@
       <c r="P33" s="111" t="s">
         <v>1018</v>
       </c>
-      <c r="Q33" s="164" t="s">
+      <c r="Q33" s="163" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -56980,7 +57092,7 @@
       <c r="P34" s="111" t="s">
         <v>1018</v>
       </c>
-      <c r="Q34" s="164" t="s">
+      <c r="Q34" s="163" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -57025,7 +57137,7 @@
       <c r="P35" s="111" t="s">
         <v>1018</v>
       </c>
-      <c r="Q35" s="164" t="s">
+      <c r="Q35" s="163" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -57056,7 +57168,7 @@
       <c r="N36" s="64"/>
       <c r="O36" s="64"/>
       <c r="P36" s="64"/>
-      <c r="Q36" s="164" t="s">
+      <c r="Q36" s="163" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -57101,7 +57213,7 @@
       <c r="P37" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q37" s="164" t="s">
+      <c r="Q37" s="163" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -57148,7 +57260,7 @@
       <c r="P38" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q38" s="164" t="s">
+      <c r="Q38" s="163" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -57195,7 +57307,7 @@
       <c r="P39" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q39" s="164" t="s">
+      <c r="Q39" s="163" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -57240,7 +57352,7 @@
       <c r="P40" s="111" t="s">
         <v>1060</v>
       </c>
-      <c r="Q40" s="164" t="s">
+      <c r="Q40" s="163" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -57285,7 +57397,7 @@
       <c r="P41" s="111" t="s">
         <v>1060</v>
       </c>
-      <c r="Q41" s="164" t="s">
+      <c r="Q41" s="163" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -57328,7 +57440,7 @@
       <c r="P42" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q42" s="164" t="s">
+      <c r="Q42" s="163" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -57430,7 +57542,7 @@
       <c r="P1" s="58" t="s">
         <v>1001</v>
       </c>
-      <c r="Q1" s="166" t="s">
+      <c r="Q1" s="165" t="s">
         <v>2280</v>
       </c>
       <c r="R1" s="24"/>
@@ -57622,7 +57734,7 @@
       <c r="P5" s="60" t="s">
         <v>1008</v>
       </c>
-      <c r="Q5" s="162" t="s">
+      <c r="Q5" s="161" t="s">
         <v>1613</v>
       </c>
     </row>
@@ -57665,7 +57777,7 @@
       <c r="P6" s="60" t="s">
         <v>1008</v>
       </c>
-      <c r="Q6" s="162" t="s">
+      <c r="Q6" s="161" t="s">
         <v>1613</v>
       </c>
     </row>
@@ -57696,7 +57808,7 @@
       <c r="N7" s="60"/>
       <c r="O7" s="60"/>
       <c r="P7" s="60"/>
-      <c r="Q7" s="162" t="s">
+      <c r="Q7" s="161" t="s">
         <v>1613</v>
       </c>
     </row>
@@ -57739,7 +57851,7 @@
       <c r="P8" s="60" t="s">
         <v>1008</v>
       </c>
-      <c r="Q8" s="162" t="s">
+      <c r="Q8" s="161" t="s">
         <v>1613</v>
       </c>
     </row>
@@ -57784,7 +57896,7 @@
       <c r="P9" s="60" t="s">
         <v>1008</v>
       </c>
-      <c r="Q9" s="162" t="s">
+      <c r="Q9" s="161" t="s">
         <v>1613</v>
       </c>
     </row>
@@ -57829,7 +57941,7 @@
       <c r="P10" s="60" t="s">
         <v>1008</v>
       </c>
-      <c r="Q10" s="162" t="s">
+      <c r="Q10" s="161" t="s">
         <v>1613</v>
       </c>
     </row>
@@ -57872,7 +57984,7 @@
       <c r="P11" s="60" t="s">
         <v>1008</v>
       </c>
-      <c r="Q11" s="162" t="s">
+      <c r="Q11" s="161" t="s">
         <v>1613</v>
       </c>
     </row>
@@ -57915,7 +58027,7 @@
       <c r="P12" s="60" t="s">
         <v>1008</v>
       </c>
-      <c r="Q12" s="162" t="s">
+      <c r="Q12" s="161" t="s">
         <v>1613</v>
       </c>
     </row>
@@ -57958,7 +58070,7 @@
       <c r="P13" s="60" t="s">
         <v>1008</v>
       </c>
-      <c r="Q13" s="162" t="s">
+      <c r="Q13" s="161" t="s">
         <v>1613</v>
       </c>
     </row>
@@ -58001,7 +58113,7 @@
       <c r="P14" s="60" t="s">
         <v>1008</v>
       </c>
-      <c r="Q14" s="162" t="s">
+      <c r="Q14" s="161" t="s">
         <v>1613</v>
       </c>
     </row>
@@ -58046,7 +58158,7 @@
       <c r="P15" s="125" t="s">
         <v>1008</v>
       </c>
-      <c r="Q15" s="162" t="s">
+      <c r="Q15" s="161" t="s">
         <v>1613</v>
       </c>
     </row>
@@ -58091,7 +58203,7 @@
       <c r="P16" s="125" t="s">
         <v>1008</v>
       </c>
-      <c r="Q16" s="162" t="s">
+      <c r="Q16" s="161" t="s">
         <v>1613</v>
       </c>
     </row>
@@ -58124,7 +58236,7 @@
       <c r="N17" s="128"/>
       <c r="O17" s="128"/>
       <c r="P17" s="128"/>
-      <c r="Q17" s="162" t="s">
+      <c r="Q17" s="161" t="s">
         <v>1613</v>
       </c>
     </row>
@@ -62088,7 +62200,7 @@
   </sheetPr>
   <dimension ref="A1:AD60"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="S61" sqref="S61"/>
     </sheetView>
   </sheetViews>
@@ -62150,7 +62262,7 @@
       <c r="P1" s="58" t="s">
         <v>1001</v>
       </c>
-      <c r="Q1" s="163" t="s">
+      <c r="Q1" s="162" t="s">
         <v>2280</v>
       </c>
       <c r="R1" s="24"/>
@@ -62342,7 +62454,7 @@
       <c r="P5" s="125" t="s">
         <v>1018</v>
       </c>
-      <c r="Q5" s="164" t="s">
+      <c r="Q5" s="163" t="s">
         <v>1668</v>
       </c>
     </row>
@@ -62389,7 +62501,7 @@
       <c r="P6" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q6" s="164" t="s">
+      <c r="Q6" s="163" t="s">
         <v>1668</v>
       </c>
     </row>
@@ -62432,7 +62544,7 @@
       <c r="P7" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q7" s="164" t="s">
+      <c r="Q7" s="163" t="s">
         <v>1668</v>
       </c>
     </row>
@@ -62473,7 +62585,7 @@
       <c r="P8" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q8" s="164" t="s">
+      <c r="Q8" s="163" t="s">
         <v>1668</v>
       </c>
     </row>
@@ -62516,7 +62628,7 @@
       <c r="P9" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q9" s="164" t="s">
+      <c r="Q9" s="163" t="s">
         <v>1668</v>
       </c>
     </row>
@@ -62563,7 +62675,7 @@
       <c r="P10" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q10" s="164" t="s">
+      <c r="Q10" s="163" t="s">
         <v>1668</v>
       </c>
     </row>
@@ -62606,7 +62718,7 @@
       <c r="P11" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q11" s="164" t="s">
+      <c r="Q11" s="163" t="s">
         <v>1668</v>
       </c>
     </row>
@@ -62653,7 +62765,7 @@
       <c r="P12" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q12" s="165" t="s">
+      <c r="Q12" s="164" t="s">
         <v>1700</v>
       </c>
     </row>
@@ -62696,7 +62808,7 @@
       <c r="P13" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q13" s="165" t="s">
+      <c r="Q13" s="164" t="s">
         <v>1700</v>
       </c>
     </row>
@@ -62739,7 +62851,7 @@
       <c r="P14" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q14" s="165" t="s">
+      <c r="Q14" s="164" t="s">
         <v>1700</v>
       </c>
     </row>
@@ -62788,7 +62900,7 @@
       <c r="P15" s="125" t="s">
         <v>1018</v>
       </c>
-      <c r="Q15" s="165" t="s">
+      <c r="Q15" s="164" t="s">
         <v>1700</v>
       </c>
     </row>
@@ -62837,7 +62949,7 @@
       <c r="P16" s="125" t="s">
         <v>1018</v>
       </c>
-      <c r="Q16" s="165" t="s">
+      <c r="Q16" s="164" t="s">
         <v>1700</v>
       </c>
     </row>
@@ -62870,7 +62982,7 @@
       <c r="N17" s="64"/>
       <c r="O17" s="64"/>
       <c r="P17" s="64"/>
-      <c r="Q17" s="165" t="s">
+      <c r="Q17" s="164" t="s">
         <v>1700</v>
       </c>
     </row>
@@ -62919,7 +63031,7 @@
       <c r="P18" s="125" t="s">
         <v>1018</v>
       </c>
-      <c r="Q18" s="165" t="s">
+      <c r="Q18" s="164" t="s">
         <v>1700</v>
       </c>
     </row>
@@ -62954,7 +63066,7 @@
       <c r="N19" s="64"/>
       <c r="O19" s="64"/>
       <c r="P19" s="64"/>
-      <c r="Q19" s="165" t="s">
+      <c r="Q19" s="164" t="s">
         <v>1700</v>
       </c>
     </row>
@@ -63003,7 +63115,7 @@
       <c r="P20" s="125" t="s">
         <v>1018</v>
       </c>
-      <c r="Q20" s="165" t="s">
+      <c r="Q20" s="164" t="s">
         <v>1700</v>
       </c>
     </row>
@@ -63036,7 +63148,7 @@
       <c r="N21" s="64"/>
       <c r="O21" s="64"/>
       <c r="P21" s="64"/>
-      <c r="Q21" s="165" t="s">
+      <c r="Q21" s="164" t="s">
         <v>1700</v>
       </c>
     </row>
@@ -63083,7 +63195,7 @@
       <c r="P22" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q22" s="165" t="s">
+      <c r="Q22" s="164" t="s">
         <v>1700</v>
       </c>
     </row>
@@ -63128,7 +63240,7 @@
       <c r="P23" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q23" s="165" t="s">
+      <c r="Q23" s="164" t="s">
         <v>1700</v>
       </c>
     </row>
@@ -63175,7 +63287,7 @@
       <c r="P24" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q24" s="165" t="s">
+      <c r="Q24" s="164" t="s">
         <v>1700</v>
       </c>
     </row>
@@ -63222,7 +63334,7 @@
       <c r="P25" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q25" s="165" t="s">
+      <c r="Q25" s="164" t="s">
         <v>1700</v>
       </c>
     </row>
@@ -63265,7 +63377,7 @@
       <c r="P26" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q26" s="165" t="s">
+      <c r="Q26" s="164" t="s">
         <v>1700</v>
       </c>
     </row>
@@ -63308,7 +63420,7 @@
       <c r="P27" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q27" s="165" t="s">
+      <c r="Q27" s="164" t="s">
         <v>1700</v>
       </c>
     </row>
@@ -63357,7 +63469,7 @@
       <c r="P28" s="125" t="s">
         <v>1018</v>
       </c>
-      <c r="Q28" s="165" t="s">
+      <c r="Q28" s="164" t="s">
         <v>1700</v>
       </c>
     </row>
@@ -63406,7 +63518,7 @@
       <c r="P29" s="125" t="s">
         <v>1018</v>
       </c>
-      <c r="Q29" s="165" t="s">
+      <c r="Q29" s="164" t="s">
         <v>1700</v>
       </c>
     </row>
@@ -63439,7 +63551,7 @@
       <c r="N30" s="64"/>
       <c r="O30" s="64"/>
       <c r="P30" s="64"/>
-      <c r="Q30" s="165" t="s">
+      <c r="Q30" s="164" t="s">
         <v>1700</v>
       </c>
     </row>
@@ -63488,7 +63600,7 @@
       <c r="P31" s="125" t="s">
         <v>1018</v>
       </c>
-      <c r="Q31" s="165" t="s">
+      <c r="Q31" s="164" t="s">
         <v>1700</v>
       </c>
     </row>
@@ -63521,7 +63633,7 @@
       <c r="N32" s="64"/>
       <c r="O32" s="64"/>
       <c r="P32" s="64"/>
-      <c r="Q32" s="165" t="s">
+      <c r="Q32" s="164" t="s">
         <v>1700</v>
       </c>
     </row>
@@ -63570,7 +63682,7 @@
       <c r="P33" s="125" t="s">
         <v>1018</v>
       </c>
-      <c r="Q33" s="165" t="s">
+      <c r="Q33" s="164" t="s">
         <v>1700</v>
       </c>
     </row>
@@ -63603,7 +63715,7 @@
       <c r="N34" s="64"/>
       <c r="O34" s="64"/>
       <c r="P34" s="64"/>
-      <c r="Q34" s="165" t="s">
+      <c r="Q34" s="164" t="s">
         <v>1700</v>
       </c>
     </row>
@@ -63652,7 +63764,7 @@
       <c r="P35" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q35" s="165" t="s">
+      <c r="Q35" s="164" t="s">
         <v>1700</v>
       </c>
     </row>
@@ -63701,7 +63813,7 @@
       <c r="P36" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q36" s="165" t="s">
+      <c r="Q36" s="164" t="s">
         <v>1700</v>
       </c>
     </row>
@@ -63744,7 +63856,7 @@
       <c r="P37" s="79" t="s">
         <v>1060</v>
       </c>
-      <c r="Q37" s="165" t="s">
+      <c r="Q37" s="164" t="s">
         <v>1792</v>
       </c>
     </row>
@@ -63785,7 +63897,7 @@
       <c r="P38" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q38" s="165" t="s">
+      <c r="Q38" s="164" t="s">
         <v>1792</v>
       </c>
     </row>
@@ -63826,7 +63938,7 @@
       <c r="P39" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q39" s="165" t="s">
+      <c r="Q39" s="164" t="s">
         <v>1792</v>
       </c>
     </row>
@@ -63867,7 +63979,7 @@
       <c r="P40" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q40" s="165" t="s">
+      <c r="Q40" s="164" t="s">
         <v>1792</v>
       </c>
     </row>
@@ -63908,7 +64020,7 @@
       <c r="P41" s="79" t="s">
         <v>1060</v>
       </c>
-      <c r="Q41" s="165" t="s">
+      <c r="Q41" s="164" t="s">
         <v>1792</v>
       </c>
     </row>
@@ -63949,7 +64061,7 @@
       <c r="P42" s="79" t="s">
         <v>1060</v>
       </c>
-      <c r="Q42" s="165" t="s">
+      <c r="Q42" s="164" t="s">
         <v>1792</v>
       </c>
     </row>
@@ -63990,7 +64102,7 @@
       <c r="P43" s="79" t="s">
         <v>1060</v>
       </c>
-      <c r="Q43" s="165" t="s">
+      <c r="Q43" s="164" t="s">
         <v>1792</v>
       </c>
     </row>
@@ -64031,7 +64143,7 @@
       <c r="P44" s="79" t="s">
         <v>1060</v>
       </c>
-      <c r="Q44" s="165" t="s">
+      <c r="Q44" s="164" t="s">
         <v>1792</v>
       </c>
     </row>
@@ -64072,7 +64184,7 @@
       <c r="P45" s="79" t="s">
         <v>1060</v>
       </c>
-      <c r="Q45" s="165" t="s">
+      <c r="Q45" s="164" t="s">
         <v>1792</v>
       </c>
     </row>
@@ -64115,7 +64227,7 @@
       <c r="P46" s="79" t="s">
         <v>1060</v>
       </c>
-      <c r="Q46" s="165" t="s">
+      <c r="Q46" s="164" t="s">
         <v>1792</v>
       </c>
     </row>
@@ -64148,7 +64260,7 @@
       <c r="N47" s="68"/>
       <c r="O47" s="68"/>
       <c r="P47" s="68"/>
-      <c r="Q47" s="165" t="s">
+      <c r="Q47" s="164" t="s">
         <v>1826</v>
       </c>
     </row>
@@ -64181,7 +64293,7 @@
       <c r="N48" s="68"/>
       <c r="O48" s="68"/>
       <c r="P48" s="68"/>
-      <c r="Q48" s="165" t="s">
+      <c r="Q48" s="164" t="s">
         <v>1826</v>
       </c>
     </row>
@@ -64214,7 +64326,7 @@
       <c r="N49" s="68"/>
       <c r="O49" s="68"/>
       <c r="P49" s="68"/>
-      <c r="Q49" s="165" t="s">
+      <c r="Q49" s="164" t="s">
         <v>1826</v>
       </c>
     </row>
@@ -64247,7 +64359,7 @@
       <c r="N50" s="68"/>
       <c r="O50" s="68"/>
       <c r="P50" s="68"/>
-      <c r="Q50" s="165" t="s">
+      <c r="Q50" s="164" t="s">
         <v>1826</v>
       </c>
     </row>
@@ -64280,7 +64392,7 @@
       <c r="N51" s="68"/>
       <c r="O51" s="68"/>
       <c r="P51" s="68"/>
-      <c r="Q51" s="165" t="s">
+      <c r="Q51" s="164" t="s">
         <v>1826</v>
       </c>
     </row>
@@ -64329,7 +64441,7 @@
       <c r="P52" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q52" s="165" t="s">
+      <c r="Q52" s="164" t="s">
         <v>1837</v>
       </c>
     </row>
@@ -64378,7 +64490,7 @@
       <c r="P53" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q53" s="165" t="s">
+      <c r="Q53" s="164" t="s">
         <v>1837</v>
       </c>
     </row>
@@ -64427,7 +64539,7 @@
       <c r="P54" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q54" s="165" t="s">
+      <c r="Q54" s="164" t="s">
         <v>1837</v>
       </c>
     </row>
@@ -64476,7 +64588,7 @@
       <c r="P55" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q55" s="165" t="s">
+      <c r="Q55" s="164" t="s">
         <v>1837</v>
       </c>
     </row>
@@ -64525,7 +64637,7 @@
       <c r="P56" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q56" s="165" t="s">
+      <c r="Q56" s="164" t="s">
         <v>1837</v>
       </c>
     </row>
@@ -64574,7 +64686,7 @@
       <c r="P57" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q57" s="165" t="s">
+      <c r="Q57" s="164" t="s">
         <v>1860</v>
       </c>
     </row>
@@ -64623,7 +64735,7 @@
       <c r="P58" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q58" s="165" t="s">
+      <c r="Q58" s="164" t="s">
         <v>1860</v>
       </c>
     </row>
@@ -64672,7 +64784,7 @@
       <c r="P59" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q59" s="165" t="s">
+      <c r="Q59" s="164" t="s">
         <v>1860</v>
       </c>
     </row>
@@ -64726,7 +64838,7 @@
   </sheetPr>
   <dimension ref="A1:AD34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
@@ -64785,7 +64897,7 @@
       <c r="P1" s="58" t="s">
         <v>1001</v>
       </c>
-      <c r="Q1" s="163" t="s">
+      <c r="Q1" s="162" t="s">
         <v>2280</v>
       </c>
       <c r="R1" s="24"/>
@@ -64971,7 +65083,7 @@
       <c r="P5" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q5" s="162" t="s">
+      <c r="Q5" s="161" t="s">
         <v>1879</v>
       </c>
     </row>
@@ -65018,7 +65130,7 @@
       <c r="P6" s="60" t="s">
         <v>1008</v>
       </c>
-      <c r="Q6" s="162" t="s">
+      <c r="Q6" s="161" t="s">
         <v>1879</v>
       </c>
     </row>
@@ -65065,7 +65177,7 @@
       <c r="P7" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q7" s="162" t="s">
+      <c r="Q7" s="161" t="s">
         <v>1879</v>
       </c>
     </row>
@@ -65108,7 +65220,7 @@
       <c r="P8" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q8" s="162" t="s">
+      <c r="Q8" s="161" t="s">
         <v>1893</v>
       </c>
     </row>
@@ -65151,7 +65263,7 @@
       <c r="P9" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q9" s="162" t="s">
+      <c r="Q9" s="161" t="s">
         <v>1893</v>
       </c>
     </row>
@@ -65194,7 +65306,7 @@
       <c r="P10" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q10" s="162" t="s">
+      <c r="Q10" s="161" t="s">
         <v>1893</v>
       </c>
     </row>
@@ -65239,7 +65351,7 @@
       <c r="P11" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q11" s="162" t="s">
+      <c r="Q11" s="161" t="s">
         <v>1893</v>
       </c>
     </row>
@@ -65284,7 +65396,7 @@
       <c r="P12" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q12" s="162" t="s">
+      <c r="Q12" s="161" t="s">
         <v>1893</v>
       </c>
     </row>
@@ -65317,7 +65429,7 @@
       <c r="N13" s="68"/>
       <c r="O13" s="68"/>
       <c r="P13" s="68"/>
-      <c r="Q13" s="162" t="s">
+      <c r="Q13" s="161" t="s">
         <v>1915</v>
       </c>
     </row>
@@ -65350,7 +65462,7 @@
       <c r="N14" s="68"/>
       <c r="O14" s="68"/>
       <c r="P14" s="68"/>
-      <c r="Q14" s="162" t="s">
+      <c r="Q14" s="161" t="s">
         <v>1915</v>
       </c>
     </row>
@@ -65383,7 +65495,7 @@
       <c r="N15" s="68"/>
       <c r="O15" s="68"/>
       <c r="P15" s="68"/>
-      <c r="Q15" s="162" t="s">
+      <c r="Q15" s="161" t="s">
         <v>1915</v>
       </c>
     </row>
@@ -65430,7 +65542,7 @@
       <c r="P16" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q16" s="164" t="s">
+      <c r="Q16" s="163" t="s">
         <v>1924</v>
       </c>
     </row>
@@ -65473,7 +65585,7 @@
       <c r="P17" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q17" s="164" t="s">
+      <c r="Q17" s="163" t="s">
         <v>1924</v>
       </c>
     </row>
@@ -65518,7 +65630,7 @@
       <c r="P18" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q18" s="164" t="s">
+      <c r="Q18" s="163" t="s">
         <v>1924</v>
       </c>
     </row>
@@ -65563,7 +65675,7 @@
       <c r="P19" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q19" s="164" t="s">
+      <c r="Q19" s="163" t="s">
         <v>1924</v>
       </c>
     </row>
@@ -65610,7 +65722,7 @@
       <c r="P20" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q20" s="165" t="s">
+      <c r="Q20" s="164" t="s">
         <v>1944</v>
       </c>
     </row>
@@ -65653,7 +65765,7 @@
       <c r="P21" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q21" s="165" t="s">
+      <c r="Q21" s="164" t="s">
         <v>1944</v>
       </c>
     </row>
@@ -65698,7 +65810,7 @@
       <c r="P22" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q22" s="165" t="s">
+      <c r="Q22" s="164" t="s">
         <v>1944</v>
       </c>
     </row>
@@ -65741,7 +65853,7 @@
       <c r="P23" s="64" t="s">
         <v>1018</v>
       </c>
-      <c r="Q23" s="165" t="s">
+      <c r="Q23" s="164" t="s">
         <v>1944</v>
       </c>
     </row>
@@ -65764,7 +65876,7 @@
       <c r="N24" s="103"/>
       <c r="O24" s="103"/>
       <c r="P24" s="103"/>
-      <c r="Q24" s="165" t="s">
+      <c r="Q24" s="164" t="s">
         <v>1962</v>
       </c>
     </row>
@@ -65793,7 +65905,7 @@
       <c r="N25" s="138"/>
       <c r="O25" s="138"/>
       <c r="P25" s="138"/>
-      <c r="Q25" s="165" t="s">
+      <c r="Q25" s="164" t="s">
         <v>1962</v>
       </c>
       <c r="R25" s="11"/>
@@ -65835,7 +65947,7 @@
       <c r="N26" s="138"/>
       <c r="O26" s="138"/>
       <c r="P26" s="138"/>
-      <c r="Q26" s="165" t="s">
+      <c r="Q26" s="164" t="s">
         <v>1962</v>
       </c>
       <c r="R26" s="11"/>
@@ -65879,7 +65991,7 @@
       </c>
       <c r="O27" s="138"/>
       <c r="P27" s="138"/>
-      <c r="Q27" s="165" t="s">
+      <c r="Q27" s="164" t="s">
         <v>1962</v>
       </c>
       <c r="R27" s="12"/>
@@ -65921,7 +66033,7 @@
       <c r="N28" s="138"/>
       <c r="O28" s="138"/>
       <c r="P28" s="138"/>
-      <c r="Q28" s="165" t="s">
+      <c r="Q28" s="164" t="s">
         <v>1962</v>
       </c>
       <c r="R28" s="11"/>
@@ -65963,7 +66075,7 @@
       <c r="N29" s="138"/>
       <c r="O29" s="138"/>
       <c r="P29" s="138"/>
-      <c r="Q29" s="165" t="s">
+      <c r="Q29" s="164" t="s">
         <v>1962</v>
       </c>
       <c r="R29" s="11"/>
@@ -66007,7 +66119,7 @@
       </c>
       <c r="O30" s="138"/>
       <c r="P30" s="138"/>
-      <c r="Q30" s="165" t="s">
+      <c r="Q30" s="164" t="s">
         <v>1962</v>
       </c>
       <c r="R30" s="12"/>
@@ -66043,7 +66155,7 @@
       <c r="N31" s="103"/>
       <c r="O31" s="103"/>
       <c r="P31" s="103"/>
-      <c r="Q31" s="165" t="s">
+      <c r="Q31" s="164" t="s">
         <v>1977</v>
       </c>
     </row>
@@ -66072,7 +66184,7 @@
       <c r="N32" s="138"/>
       <c r="O32" s="138"/>
       <c r="P32" s="138"/>
-      <c r="Q32" s="165" t="s">
+      <c r="Q32" s="164" t="s">
         <v>1977</v>
       </c>
       <c r="R32" s="11"/>
@@ -66114,7 +66226,7 @@
       <c r="N33" s="138"/>
       <c r="O33" s="138"/>
       <c r="P33" s="138"/>
-      <c r="Q33" s="165" t="s">
+      <c r="Q33" s="164" t="s">
         <v>1977</v>
       </c>
       <c r="R33" s="11"/>
@@ -66158,7 +66270,7 @@
       </c>
       <c r="O34" s="138"/>
       <c r="P34" s="138"/>
-      <c r="Q34" s="165" t="s">
+      <c r="Q34" s="164" t="s">
         <v>1977</v>
       </c>
       <c r="R34" s="12"/>
